--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>733630.3302078383</v>
+        <v>663155.8370715108</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409203.1627948467</v>
+        <v>410103.569354524</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11312740.35580983</v>
+        <v>11323574.29770152</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7925544.842641097</v>
+        <v>7932403.365169231</v>
       </c>
     </row>
     <row r="11">
@@ -673,11 +673,11 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="H2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="H2" t="n">
-        <v>264.3952212715415</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W2" t="n">
         <v>274.2838073416025</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>43.75167773371575</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>45.09162294051066</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -803,10 +803,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.15457984420474</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G5" t="n">
-        <v>236.5574327625856</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.7736570458744</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>16.28916907668049</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>90.07428171382941</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>58.53026954800207</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.259507409816217</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>32.75410523180386</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>34.97178237361774</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>353.3606744918864</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>353.3606744918864</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>353.3606744918864</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H11" t="n">
-        <v>311.2400820924536</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.55977888071591</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>58.57982147197337</v>
       </c>
       <c r="S12" t="n">
-        <v>166.2362328081954</v>
+        <v>158.1571708882373</v>
       </c>
       <c r="T12" t="n">
-        <v>197.791120992435</v>
+        <v>196.0379550173603</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6475240054629</v>
+        <v>198.0949836570804</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -1514,7 +1514,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>97.07799855377831</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.47158450881464</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.025670721027</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>25.48526062110785</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>102.1322245781323</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>38.16719580549307</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.3117380016203</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.2060931489365</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>116.9823070666426</v>
       </c>
       <c r="G15" t="n">
-        <v>135.2917907515943</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>103.3985434322537</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61.32090000246036</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.28281404613777</v>
+        <v>58.57982147197337</v>
       </c>
       <c r="S15" t="n">
-        <v>155.3758183558542</v>
+        <v>158.1571708882373</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4343982340639</v>
+        <v>196.0379550173603</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6090573663165</v>
+        <v>224.6189086739872</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>50.82949897842275</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>25.4852606211079</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.025670721027</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>137.2786542651091</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>308.7020104531645</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.55977888071591</v>
       </c>
       <c r="S17" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746462</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -1937,13 +1937,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.2917907515943</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>103.3985434322537</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>61.32090000246037</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.28281404613733</v>
+        <v>32.05589645506662</v>
       </c>
       <c r="S18" t="n">
-        <v>155.3758183558542</v>
+        <v>158.1571708882373</v>
       </c>
       <c r="T18" t="n">
-        <v>195.4343982340639</v>
+        <v>196.0379550173603</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6090573663165</v>
+        <v>224.6189086739872</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>128.4665504535168</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>92.76225747436663</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4877467656314</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H20" t="n">
-        <v>324.1439237596927</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I20" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.980993107702</v>
+        <v>218.2060931489365</v>
       </c>
       <c r="U20" t="n">
-        <v>150.8863538989459</v>
+        <v>189.2066203847265</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.2917907515943</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>103.3985434322537</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>61.32090000246037</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.28281404613733</v>
+        <v>58.57982147197337</v>
       </c>
       <c r="S21" t="n">
-        <v>155.3758183558542</v>
+        <v>158.1571708882373</v>
       </c>
       <c r="T21" t="n">
-        <v>195.4343982340639</v>
+        <v>169.5140300004535</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6090573663165</v>
+        <v>224.6189086739872</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.9893467500008</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.025670721027</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>25.48526062110785</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.1887879554428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>175.9069455824308</v>
+        <v>106.6781223107724</v>
       </c>
       <c r="D23" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
@@ -2338,7 +2338,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I23" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I24" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.28281404613688</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S24" t="n">
         <v>155.3758183558542</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>152.6928602196808</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>222.5326909750901</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>99.61400533043471</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I26" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.980993107702</v>
+        <v>154.4516096151446</v>
       </c>
       <c r="U26" t="n">
         <v>251.3684020854885</v>
@@ -2620,10 +2620,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I27" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>95.31032463304049</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.48578169199548</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,25 +2757,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>100.7135412432842</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>166.3204605401411</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>71.07238729107037</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>100.9897993672215</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>128.3927968208129</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>246.3385455901195</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H32" t="n">
-        <v>308.6164008162618</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S32" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
@@ -3125,10 +3125,10 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H33" t="n">
-        <v>103.3985434322539</v>
+        <v>103.3985434322537</v>
       </c>
       <c r="I33" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>58.00612124733514</v>
+        <v>153.5084629830755</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
-        <v>158.1120627472092</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U35" t="n">
         <v>251.3684020854885</v>
@@ -3331,10 +3331,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>30.92068759248959</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.2917907515945</v>
+        <v>135.2917907515943</v>
       </c>
       <c r="H36" t="n">
         <v>103.3985434322537</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>58.00612124733537</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>41.30856600859169</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S38" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>304.4685971896134</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.8740809765506</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H39" t="n">
-        <v>103.3985434322537</v>
+        <v>103.3985434322539</v>
       </c>
       <c r="I39" t="n">
         <v>61.32090000246037</v>
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.48578169199548</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3705,25 +3705,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>134.7455661960213</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>95.31032463304057</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
@@ -3757,10 +3757,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H41" t="n">
-        <v>85.56231655061663</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>75.17714731114943</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>128.4665504535168</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.0188232547115</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>95.31032463304051</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>115.6786831542808</v>
       </c>
       <c r="G44" t="n">
-        <v>61.02036841102578</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>251.3684020854885</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I45" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>49.28281404613733</v>
       </c>
       <c r="S45" t="n">
-        <v>155.3758183558544</v>
+        <v>155.3758183558542</v>
       </c>
       <c r="T45" t="n">
         <v>195.4343982340639</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>128.3927968208129</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>155.2625415881468</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.0629355096959</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C2" t="n">
-        <v>566.0629355096959</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D2" t="n">
-        <v>566.0629355096959</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E2" t="n">
-        <v>566.0629355096959</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="F2" t="n">
-        <v>566.0629355096959</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="G2" t="n">
-        <v>289.0085846595923</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H2" t="n">
         <v>21.9427045873282</v>
@@ -4363,19 +4363,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>843.1172863597994</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>843.1172863597994</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="W2" t="n">
-        <v>566.0629355096959</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="X2" t="n">
-        <v>566.0629355096959</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.0629355096959</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>403.8425956309216</v>
+        <v>133.521003094533</v>
       </c>
       <c r="C3" t="n">
-        <v>403.8425956309216</v>
+        <v>133.521003094533</v>
       </c>
       <c r="D3" t="n">
-        <v>403.8425956309216</v>
+        <v>133.521003094533</v>
       </c>
       <c r="E3" t="n">
-        <v>403.8425956309216</v>
+        <v>133.521003094533</v>
       </c>
       <c r="F3" t="n">
-        <v>358.2955017516178</v>
+        <v>133.521003094533</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8983197263226</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
@@ -4418,16 +4418,16 @@
         <v>277.4136198757311</v>
       </c>
       <c r="M3" t="n">
-        <v>277.9660032696079</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N3" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O3" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4442,19 +4442,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8839858920107</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W3" t="n">
-        <v>610.3694942253441</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X3" t="n">
-        <v>403.8425956309216</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="Y3" t="n">
-        <v>403.8425956309216</v>
+        <v>177.7146169669732</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>177.254368019049</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
         <v>21.9427045873282</v>
@@ -4527,13 +4527,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>745.907174392252</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="C5" t="n">
-        <v>745.907174392252</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="D5" t="n">
-        <v>745.907174392252</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="E5" t="n">
-        <v>745.907174392252</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="F5" t="n">
-        <v>745.907174392252</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="G5" t="n">
-        <v>506.9602726118625</v>
+        <v>122.688517522284</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9059217617589</v>
+        <v>122.688517522284</v>
       </c>
       <c r="I5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4594,25 +4594,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U5" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V5" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W5" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X5" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="Y5" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>981.2022424513852</v>
+        <v>38.3964107253893</v>
       </c>
       <c r="C6" t="n">
-        <v>808.4491273732024</v>
+        <v>38.3964107253893</v>
       </c>
       <c r="D6" t="n">
-        <v>660.8608207321463</v>
+        <v>38.3964107253893</v>
       </c>
       <c r="E6" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>29.3360154338131</v>
+        <v>111.0665668439877</v>
       </c>
       <c r="L6" t="n">
-        <v>29.3360154338131</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="M6" t="n">
-        <v>300.8769847019996</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O6" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4679,19 +4679,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V6" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="W6" t="n">
-        <v>1097.13522936641</v>
+        <v>617.6942962177218</v>
       </c>
       <c r="X6" t="n">
-        <v>1097.13522936641</v>
+        <v>411.1673976232993</v>
       </c>
       <c r="Y6" t="n">
-        <v>1097.13522936641</v>
+        <v>205.4389618469498</v>
       </c>
     </row>
     <row r="7">
@@ -4710,19 +4710,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
         <v>21.9427045873282</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.9427045873282</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="C8" t="n">
-        <v>21.9427045873282</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="D8" t="n">
-        <v>21.9427045873282</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="E8" t="n">
-        <v>21.9427045873282</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="F8" t="n">
-        <v>21.9427045873282</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="G8" t="n">
-        <v>21.9427045873282</v>
+        <v>122.688517522284</v>
       </c>
       <c r="H8" t="n">
         <v>21.9427045873282</v>
@@ -4807,49 +4807,49 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>143.2410926494321</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L8" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M8" t="n">
-        <v>586.1689795623911</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003606</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813537</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>889.1908336860672</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T8" t="n">
-        <v>830.0693492941459</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U8" t="n">
-        <v>576.0514062875353</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V8" t="n">
-        <v>298.9970554374318</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W8" t="n">
-        <v>298.9970554374318</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X8" t="n">
-        <v>298.9970554374318</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.9427045873282</v>
+        <v>676.7972192224911</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>724.3642424684999</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C9" t="n">
-        <v>724.3642424684999</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D9" t="n">
-        <v>576.7759358274438</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E9" t="n">
-        <v>419.1664068302986</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F9" t="n">
-        <v>274.2106168469154</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8134348216201</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H9" t="n">
-        <v>25.23513631441529</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
@@ -4886,19 +4886,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>409.2622680873972</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>409.2622680873972</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N9" t="n">
-        <v>630.6851405540922</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O9" t="n">
-        <v>898.564759531413</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P9" t="n">
         <v>1097.13522936641</v>
@@ -4916,19 +4916,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V9" t="n">
-        <v>1097.13522936641</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W9" t="n">
-        <v>1097.13522936641</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y9" t="n">
-        <v>891.4067935900604</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="10">
@@ -4947,22 +4947,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>202.6630345283467</v>
+        <v>169.5780797487469</v>
       </c>
       <c r="F10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1413.442697967546</v>
+        <v>830.6467581515756</v>
       </c>
       <c r="C11" t="n">
-        <v>1413.442697967546</v>
+        <v>795.3217254509516</v>
       </c>
       <c r="D11" t="n">
-        <v>1413.442697967546</v>
+        <v>795.3217254509516</v>
       </c>
       <c r="E11" t="n">
-        <v>1056.512723733317</v>
+        <v>795.3217254509516</v>
       </c>
       <c r="F11" t="n">
-        <v>699.5827494990883</v>
+        <v>795.3217254509516</v>
       </c>
       <c r="G11" t="n">
-        <v>342.6527752648596</v>
+        <v>377.3746449352783</v>
       </c>
       <c r="H11" t="n">
-        <v>28.26885395935091</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I11" t="n">
-        <v>28.26885395935091</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J11" t="n">
-        <v>50.65843562542955</v>
+        <v>137.757029126597</v>
       </c>
       <c r="K11" t="n">
-        <v>206.4912073741739</v>
+        <v>395.9627954019089</v>
       </c>
       <c r="L11" t="n">
-        <v>451.7846185279107</v>
+        <v>768.2589587052587</v>
       </c>
       <c r="M11" t="n">
-        <v>739.933095274889</v>
+        <v>1197.722468029211</v>
       </c>
       <c r="N11" t="n">
-        <v>1017.226940633321</v>
+        <v>1618.61797093203</v>
       </c>
       <c r="O11" t="n">
-        <v>1232.939304314796</v>
+        <v>1969.929307769078</v>
       </c>
       <c r="P11" t="n">
-        <v>1380.106022867015</v>
+        <v>2232.826612716459</v>
       </c>
       <c r="Q11" t="n">
-        <v>1413.442697967546</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="R11" t="n">
-        <v>1413.442697967546</v>
+        <v>2278.769331531008</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.442697967546</v>
+        <v>2278.769331531008</v>
       </c>
       <c r="T11" t="n">
-        <v>1413.442697967546</v>
+        <v>2278.769331531008</v>
       </c>
       <c r="U11" t="n">
-        <v>1413.442697967546</v>
+        <v>2278.769331531008</v>
       </c>
       <c r="V11" t="n">
-        <v>1413.442697967546</v>
+        <v>1946.917592619373</v>
       </c>
       <c r="W11" t="n">
-        <v>1413.442697967546</v>
+        <v>1592.846767366287</v>
       </c>
       <c r="X11" t="n">
-        <v>1413.442697967546</v>
+        <v>1218.239091476217</v>
       </c>
       <c r="Y11" t="n">
-        <v>1413.442697967546</v>
+        <v>1218.239091476217</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.26885395935091</v>
+        <v>669.968183469392</v>
       </c>
       <c r="C12" t="n">
-        <v>28.26885395935091</v>
+        <v>497.2150683912091</v>
       </c>
       <c r="D12" t="n">
-        <v>28.26885395935091</v>
+        <v>349.626761750153</v>
       </c>
       <c r="E12" t="n">
-        <v>28.26885395935091</v>
+        <v>192.0172327530077</v>
       </c>
       <c r="F12" t="n">
-        <v>28.26885395935091</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G12" t="n">
-        <v>28.26885395935091</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H12" t="n">
-        <v>28.26885395935091</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I12" t="n">
-        <v>28.26885395935091</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J12" t="n">
-        <v>28.26885395935091</v>
+        <v>108.8611578587506</v>
       </c>
       <c r="K12" t="n">
-        <v>28.26885395935091</v>
+        <v>341.092327492145</v>
       </c>
       <c r="L12" t="n">
-        <v>85.31906048479129</v>
+        <v>714.2054011338194</v>
       </c>
       <c r="M12" t="n">
-        <v>435.1461282317588</v>
+        <v>1202.410953541628</v>
       </c>
       <c r="N12" t="n">
-        <v>784.9731959787264</v>
+        <v>1718.936586224144</v>
       </c>
       <c r="O12" t="n">
-        <v>1087.413691203835</v>
+        <v>2123.82860996218</v>
       </c>
       <c r="P12" t="n">
-        <v>1313.722311168354</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="Q12" t="n">
-        <v>1413.442697967546</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="R12" t="n">
-        <v>1413.442697967546</v>
+        <v>2293.900601640849</v>
       </c>
       <c r="S12" t="n">
-        <v>1245.527311292601</v>
+        <v>2134.145883571923</v>
       </c>
       <c r="T12" t="n">
-        <v>1045.738300189131</v>
+        <v>1936.127747190751</v>
       </c>
       <c r="U12" t="n">
-        <v>818.8216092745222</v>
+        <v>1736.031804102791</v>
       </c>
       <c r="V12" t="n">
-        <v>584.570365800123</v>
+        <v>1501.780560628391</v>
       </c>
       <c r="W12" t="n">
-        <v>332.0558741334563</v>
+        <v>1249.266068961725</v>
       </c>
       <c r="X12" t="n">
-        <v>233.9972897357004</v>
+        <v>1042.739170367302</v>
       </c>
       <c r="Y12" t="n">
-        <v>28.26885395935091</v>
+        <v>837.0107345909524</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>296.7619220805802</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7351009379516</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7351009379516</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7351009379516</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7351009379516</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G13" t="n">
-        <v>127.7351009379516</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7351009379516</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I13" t="n">
-        <v>28.26885395935091</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J13" t="n">
-        <v>28.26885395935091</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="K13" t="n">
-        <v>28.26885395935091</v>
+        <v>88.52550135650139</v>
       </c>
       <c r="L13" t="n">
-        <v>83.4608111974039</v>
+        <v>197.3888359084144</v>
       </c>
       <c r="M13" t="n">
-        <v>152.2458912438731</v>
+        <v>322.7628580499604</v>
       </c>
       <c r="N13" t="n">
-        <v>224.5366777238911</v>
+        <v>450.2970280645392</v>
       </c>
       <c r="O13" t="n">
-        <v>275.9723230856096</v>
+        <v>552.7588795211516</v>
       </c>
       <c r="P13" t="n">
-        <v>296.7619220805802</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.7619220805802</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="R13" t="n">
-        <v>296.7619220805802</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="S13" t="n">
-        <v>296.7619220805802</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="T13" t="n">
-        <v>296.7619220805802</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="U13" t="n">
-        <v>296.7619220805802</v>
+        <v>328.295393969672</v>
       </c>
       <c r="V13" t="n">
-        <v>296.7619220805802</v>
+        <v>72.80413026569306</v>
       </c>
       <c r="W13" t="n">
-        <v>296.7619220805802</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="X13" t="n">
-        <v>296.7619220805802</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="Y13" t="n">
-        <v>296.7619220805802</v>
+        <v>47.06144276962453</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>527.3869856216282</v>
+        <v>1426.202528579584</v>
       </c>
       <c r="C14" t="n">
-        <v>156.6949697843124</v>
+        <v>1055.510512742268</v>
       </c>
       <c r="D14" t="n">
-        <v>53.53110657407782</v>
+        <v>1055.510512742268</v>
       </c>
       <c r="E14" t="n">
-        <v>53.53110657407782</v>
+        <v>668.5225978379376</v>
       </c>
       <c r="F14" t="n">
-        <v>53.53110657407782</v>
+        <v>668.5225978379376</v>
       </c>
       <c r="G14" t="n">
-        <v>53.53110657407782</v>
+        <v>250.5755173222643</v>
       </c>
       <c r="H14" t="n">
-        <v>53.53110657407782</v>
+        <v>212.0227942864127</v>
       </c>
       <c r="I14" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J14" t="n">
-        <v>167.7421803733075</v>
+        <v>137.757029126597</v>
       </c>
       <c r="K14" t="n">
-        <v>461.1915665632932</v>
+        <v>395.9627954019089</v>
       </c>
       <c r="L14" t="n">
-        <v>877.2105568248487</v>
+        <v>768.2589587052587</v>
       </c>
       <c r="M14" t="n">
-        <v>1355.324135626645</v>
+        <v>1197.722468029211</v>
       </c>
       <c r="N14" t="n">
-        <v>1825.656916993543</v>
+        <v>1618.61797093203</v>
       </c>
       <c r="O14" t="n">
-        <v>2223.65047400805</v>
+        <v>1969.929307769078</v>
       </c>
       <c r="P14" t="n">
-        <v>2526.389973845558</v>
+        <v>2232.826612716459</v>
       </c>
       <c r="Q14" t="n">
-        <v>2676.555328703891</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="R14" t="n">
-        <v>2620.010037624015</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="S14" t="n">
-        <v>2620.010037624015</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="T14" t="n">
-        <v>2620.010037624015</v>
+        <v>2132.66194338129</v>
       </c>
       <c r="U14" t="n">
-        <v>2366.102560769986</v>
+        <v>2132.66194338129</v>
       </c>
       <c r="V14" t="n">
-        <v>2034.25082185835</v>
+        <v>1800.810204469655</v>
       </c>
       <c r="W14" t="n">
-        <v>1680.179996605265</v>
+        <v>1800.810204469655</v>
       </c>
       <c r="X14" t="n">
-        <v>1305.572320715195</v>
+        <v>1426.202528579584</v>
       </c>
       <c r="Y14" t="n">
-        <v>914.9793189462697</v>
+        <v>1426.202528579584</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.479497967086</v>
+        <v>643.176340017971</v>
       </c>
       <c r="C15" t="n">
-        <v>806.7263828889031</v>
+        <v>470.4232249397882</v>
       </c>
       <c r="D15" t="n">
-        <v>659.138076247847</v>
+        <v>322.8349182987321</v>
       </c>
       <c r="E15" t="n">
-        <v>501.5285472507018</v>
+        <v>165.2253893015868</v>
       </c>
       <c r="F15" t="n">
-        <v>356.5727572673186</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G15" t="n">
-        <v>219.9143827707587</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H15" t="n">
-        <v>115.4714096068661</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I15" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J15" t="n">
-        <v>53.53110657407782</v>
+        <v>108.8611578587506</v>
       </c>
       <c r="K15" t="n">
-        <v>239.7918714752599</v>
+        <v>341.092327492145</v>
       </c>
       <c r="L15" t="n">
-        <v>645.0924182088989</v>
+        <v>714.2054011338194</v>
       </c>
       <c r="M15" t="n">
-        <v>1170.859233530006</v>
+        <v>1202.410953541628</v>
       </c>
       <c r="N15" t="n">
-        <v>1725.940263988108</v>
+        <v>1718.936586224144</v>
       </c>
       <c r="O15" t="n">
-        <v>2166.102944282447</v>
+        <v>2044.53713459878</v>
       </c>
       <c r="P15" t="n">
-        <v>2502.945759567338</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="Q15" t="n">
-        <v>2676.555328703891</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="R15" t="n">
-        <v>2626.774708455267</v>
+        <v>2293.900601640849</v>
       </c>
       <c r="S15" t="n">
-        <v>2469.829437388747</v>
+        <v>2134.145883571923</v>
       </c>
       <c r="T15" t="n">
-        <v>2272.420954324036</v>
+        <v>1936.127747190751</v>
       </c>
       <c r="U15" t="n">
-        <v>2045.543118600484</v>
+        <v>1709.23996065137</v>
       </c>
       <c r="V15" t="n">
-        <v>1811.291875126085</v>
+        <v>1474.98871717697</v>
       </c>
       <c r="W15" t="n">
-        <v>1558.777383459418</v>
+        <v>1222.474225510304</v>
       </c>
       <c r="X15" t="n">
-        <v>1352.250484864996</v>
+        <v>1015.947326915881</v>
       </c>
       <c r="Y15" t="n">
-        <v>1146.522049088646</v>
+        <v>810.2188911395315</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.6944649328329</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="C16" t="n">
-        <v>727.6944649328329</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="D16" t="n">
-        <v>676.3515366717999</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="E16" t="n">
-        <v>527.892320335235</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="F16" t="n">
-        <v>380.2569451738163</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G16" t="n">
-        <v>211.2908932240091</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H16" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I16" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J16" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="K16" t="n">
-        <v>109.4344173802943</v>
+        <v>88.52550135650139</v>
       </c>
       <c r="L16" t="n">
-        <v>236.775023512417</v>
+        <v>197.3888359084144</v>
       </c>
       <c r="M16" t="n">
-        <v>381.630737830651</v>
+        <v>322.7628580499604</v>
       </c>
       <c r="N16" t="n">
-        <v>528.1833689256792</v>
+        <v>450.2970280645392</v>
       </c>
       <c r="O16" t="n">
-        <v>648.2118474172128</v>
+        <v>552.7588795211516</v>
       </c>
       <c r="P16" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="Q16" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="R16" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="S16" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="T16" t="n">
-        <v>727.6944649328329</v>
+        <v>591.4675253837318</v>
       </c>
       <c r="U16" t="n">
-        <v>727.6944649328329</v>
+        <v>302.5527064736035</v>
       </c>
       <c r="V16" t="n">
-        <v>727.6944649328329</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="W16" t="n">
-        <v>727.6944649328329</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="X16" t="n">
-        <v>727.6944649328329</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="Y16" t="n">
-        <v>727.6944649328329</v>
+        <v>47.06144276962453</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>562.8884297498877</v>
+        <v>1888.176329762083</v>
       </c>
       <c r="C17" t="n">
-        <v>192.1964139125719</v>
+        <v>1517.484313924767</v>
       </c>
       <c r="D17" t="n">
-        <v>53.53110657407782</v>
+        <v>1157.277513162547</v>
       </c>
       <c r="E17" t="n">
-        <v>53.53110657407782</v>
+        <v>770.2895982582158</v>
       </c>
       <c r="F17" t="n">
-        <v>53.53110657407782</v>
+        <v>358.8816553485786</v>
       </c>
       <c r="G17" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H17" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I17" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J17" t="n">
-        <v>167.7421803733077</v>
+        <v>137.757029126597</v>
       </c>
       <c r="K17" t="n">
-        <v>461.1915665632932</v>
+        <v>395.9627954019089</v>
       </c>
       <c r="L17" t="n">
-        <v>877.2105568248486</v>
+        <v>768.2589587052587</v>
       </c>
       <c r="M17" t="n">
-        <v>1355.324135626645</v>
+        <v>1197.722468029211</v>
       </c>
       <c r="N17" t="n">
-        <v>1825.656916993543</v>
+        <v>1618.61797093203</v>
       </c>
       <c r="O17" t="n">
-        <v>2223.65047400805</v>
+        <v>1969.929307769078</v>
       </c>
       <c r="P17" t="n">
-        <v>2526.389973845558</v>
+        <v>2232.826612716459</v>
       </c>
       <c r="Q17" t="n">
-        <v>2676.555328703891</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="R17" t="n">
-        <v>2676.555328703891</v>
+        <v>2278.769331531008</v>
       </c>
       <c r="S17" t="n">
-        <v>2500.076526173014</v>
+        <v>2278.769331531008</v>
       </c>
       <c r="T17" t="n">
-        <v>2280.903805862204</v>
+        <v>2278.769331531008</v>
       </c>
       <c r="U17" t="n">
-        <v>2026.996329008175</v>
+        <v>2278.769331531008</v>
       </c>
       <c r="V17" t="n">
-        <v>1695.14459009654</v>
+        <v>2278.769331531008</v>
       </c>
       <c r="W17" t="n">
-        <v>1341.073764843454</v>
+        <v>2278.769331531008</v>
       </c>
       <c r="X17" t="n">
-        <v>1341.073764843454</v>
+        <v>2278.769331531008</v>
       </c>
       <c r="Y17" t="n">
-        <v>950.4807630745291</v>
+        <v>1888.176329762083</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.4794979670866</v>
+        <v>669.968183469392</v>
       </c>
       <c r="C18" t="n">
-        <v>806.7263828889038</v>
+        <v>497.2150683912091</v>
       </c>
       <c r="D18" t="n">
-        <v>659.138076247847</v>
+        <v>349.626761750153</v>
       </c>
       <c r="E18" t="n">
-        <v>501.5285472507018</v>
+        <v>192.0172327530077</v>
       </c>
       <c r="F18" t="n">
-        <v>356.5727572673186</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G18" t="n">
-        <v>219.9143827707587</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H18" t="n">
-        <v>115.4714096068661</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I18" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J18" t="n">
-        <v>129.3364848865957</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="K18" t="n">
-        <v>385.5055637579836</v>
+        <v>261.8008521287451</v>
       </c>
       <c r="L18" t="n">
-        <v>790.8061104916227</v>
+        <v>634.9139257704194</v>
       </c>
       <c r="M18" t="n">
-        <v>1316.572925812729</v>
+        <v>1123.119478178229</v>
       </c>
       <c r="N18" t="n">
-        <v>1871.653956270832</v>
+        <v>1639.645110860744</v>
       </c>
       <c r="O18" t="n">
-        <v>2311.81663656517</v>
+        <v>2044.53713459878</v>
       </c>
       <c r="P18" t="n">
-        <v>2648.659451850061</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="Q18" t="n">
-        <v>2676.555328703891</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="R18" t="n">
-        <v>2626.774708455268</v>
+        <v>2320.69244509227</v>
       </c>
       <c r="S18" t="n">
-        <v>2469.829437388748</v>
+        <v>2160.937727023344</v>
       </c>
       <c r="T18" t="n">
-        <v>2272.420954324037</v>
+        <v>1962.919590642172</v>
       </c>
       <c r="U18" t="n">
-        <v>2045.543118600485</v>
+        <v>1736.031804102791</v>
       </c>
       <c r="V18" t="n">
-        <v>1811.291875126086</v>
+        <v>1501.780560628391</v>
       </c>
       <c r="W18" t="n">
-        <v>1558.777383459419</v>
+        <v>1249.266068961725</v>
       </c>
       <c r="X18" t="n">
-        <v>1352.250484864996</v>
+        <v>1042.739170367302</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.522049088647</v>
+        <v>837.0107345909524</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.2952989513676</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="C19" t="n">
-        <v>183.2952989513676</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="D19" t="n">
-        <v>183.2952989513676</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="E19" t="n">
-        <v>183.2952989513676</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="F19" t="n">
-        <v>183.2952989513676</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G19" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H19" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I19" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J19" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="K19" t="n">
-        <v>109.4344173802943</v>
+        <v>88.52550135650139</v>
       </c>
       <c r="L19" t="n">
-        <v>236.775023512417</v>
+        <v>197.3888359084144</v>
       </c>
       <c r="M19" t="n">
-        <v>381.630737830651</v>
+        <v>322.7628580499604</v>
       </c>
       <c r="N19" t="n">
-        <v>528.1833689256792</v>
+        <v>450.2970280645392</v>
       </c>
       <c r="O19" t="n">
-        <v>648.2118474172128</v>
+        <v>552.7588795211516</v>
       </c>
       <c r="P19" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="Q19" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="R19" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="S19" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="T19" t="n">
-        <v>727.6944649328329</v>
+        <v>523.5109629056926</v>
       </c>
       <c r="U19" t="n">
-        <v>438.7865626553465</v>
+        <v>523.5109629056926</v>
       </c>
       <c r="V19" t="n">
-        <v>183.2952989513676</v>
+        <v>268.0196992017136</v>
       </c>
       <c r="W19" t="n">
-        <v>183.2952989513676</v>
+        <v>268.0196992017136</v>
       </c>
       <c r="X19" t="n">
-        <v>183.2952989513676</v>
+        <v>268.0196992017136</v>
       </c>
       <c r="Y19" t="n">
-        <v>183.2952989513676</v>
+        <v>47.06144276962453</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>952.6765533864634</v>
+        <v>1566.93646912281</v>
       </c>
       <c r="C20" t="n">
-        <v>952.6765533864634</v>
+        <v>1566.93646912281</v>
       </c>
       <c r="D20" t="n">
-        <v>952.6765533864634</v>
+        <v>1206.729668360589</v>
       </c>
       <c r="E20" t="n">
-        <v>952.6765533864634</v>
+        <v>1206.729668360589</v>
       </c>
       <c r="F20" t="n">
-        <v>952.6765533864634</v>
+        <v>795.3217254509516</v>
       </c>
       <c r="G20" t="n">
-        <v>535.0121627141084</v>
+        <v>377.3746449352783</v>
       </c>
       <c r="H20" t="n">
-        <v>207.594057906338</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I20" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J20" t="n">
-        <v>167.7421803733077</v>
+        <v>137.757029126597</v>
       </c>
       <c r="K20" t="n">
-        <v>461.1915665632932</v>
+        <v>395.9627954019089</v>
       </c>
       <c r="L20" t="n">
-        <v>877.2105568248489</v>
+        <v>768.2589587052587</v>
       </c>
       <c r="M20" t="n">
-        <v>1355.324135626646</v>
+        <v>1197.722468029211</v>
       </c>
       <c r="N20" t="n">
-        <v>1825.656916993543</v>
+        <v>1618.61797093203</v>
       </c>
       <c r="O20" t="n">
-        <v>2223.65047400805</v>
+        <v>1969.929307769078</v>
       </c>
       <c r="P20" t="n">
-        <v>2526.389973845557</v>
+        <v>2232.826612716459</v>
       </c>
       <c r="Q20" t="n">
-        <v>2676.555328703891</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="R20" t="n">
-        <v>2620.010037624015</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="S20" t="n">
-        <v>2443.531235093138</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.358514782328</v>
+        <v>2132.66194338129</v>
       </c>
       <c r="U20" t="n">
-        <v>2071.948056298544</v>
+        <v>1941.54414501288</v>
       </c>
       <c r="V20" t="n">
-        <v>2071.948056298544</v>
+        <v>1941.54414501288</v>
       </c>
       <c r="W20" t="n">
-        <v>1717.877231045459</v>
+        <v>1941.54414501288</v>
       </c>
       <c r="X20" t="n">
-        <v>1343.269555155388</v>
+        <v>1566.93646912281</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.6765533864634</v>
+        <v>1566.93646912281</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.479497967086</v>
+        <v>669.968183469392</v>
       </c>
       <c r="C21" t="n">
-        <v>806.7263828889031</v>
+        <v>497.2150683912091</v>
       </c>
       <c r="D21" t="n">
-        <v>659.138076247847</v>
+        <v>349.626761750153</v>
       </c>
       <c r="E21" t="n">
-        <v>501.5285472507018</v>
+        <v>192.0172327530077</v>
       </c>
       <c r="F21" t="n">
-        <v>356.5727572673186</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G21" t="n">
-        <v>219.9143827707587</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H21" t="n">
-        <v>115.4714096068661</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I21" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J21" t="n">
-        <v>129.3364848865957</v>
+        <v>108.8611578587506</v>
       </c>
       <c r="K21" t="n">
-        <v>385.5055637579836</v>
+        <v>341.092327492145</v>
       </c>
       <c r="L21" t="n">
-        <v>790.8061104916227</v>
+        <v>714.2054011338194</v>
       </c>
       <c r="M21" t="n">
-        <v>1316.572925812729</v>
+        <v>1202.410953541628</v>
       </c>
       <c r="N21" t="n">
-        <v>1871.653956270832</v>
+        <v>1484.958563981913</v>
       </c>
       <c r="O21" t="n">
-        <v>2311.81663656517</v>
+        <v>1889.850587719949</v>
       </c>
       <c r="P21" t="n">
-        <v>2648.659451850061</v>
+        <v>2198.385591602395</v>
       </c>
       <c r="Q21" t="n">
-        <v>2676.555328703891</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="R21" t="n">
-        <v>2626.774708455268</v>
+        <v>2293.900601640849</v>
       </c>
       <c r="S21" t="n">
-        <v>2469.829437388748</v>
+        <v>2134.145883571923</v>
       </c>
       <c r="T21" t="n">
-        <v>2272.420954324037</v>
+        <v>1962.919590642172</v>
       </c>
       <c r="U21" t="n">
-        <v>2045.543118600485</v>
+        <v>1736.031804102791</v>
       </c>
       <c r="V21" t="n">
-        <v>1811.291875126086</v>
+        <v>1501.780560628391</v>
       </c>
       <c r="W21" t="n">
-        <v>1558.777383459418</v>
+        <v>1249.266068961725</v>
       </c>
       <c r="X21" t="n">
-        <v>1352.250484864996</v>
+        <v>1042.739170367302</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.522049088646</v>
+        <v>837.0107345909524</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="C22" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="D22" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="E22" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="F22" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G22" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H22" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I22" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J22" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="K22" t="n">
-        <v>109.4344173802943</v>
+        <v>88.52550135650139</v>
       </c>
       <c r="L22" t="n">
-        <v>236.775023512417</v>
+        <v>197.3888359084144</v>
       </c>
       <c r="M22" t="n">
-        <v>381.630737830651</v>
+        <v>322.7628580499604</v>
       </c>
       <c r="N22" t="n">
-        <v>528.1833689256792</v>
+        <v>450.2970280645392</v>
       </c>
       <c r="O22" t="n">
-        <v>648.2118474172128</v>
+        <v>552.7588795211516</v>
       </c>
       <c r="P22" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="Q22" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="R22" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="S22" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="T22" t="n">
-        <v>727.6944649328329</v>
+        <v>617.2102128798003</v>
       </c>
       <c r="U22" t="n">
-        <v>727.6944649328329</v>
+        <v>328.295393969672</v>
       </c>
       <c r="V22" t="n">
-        <v>727.6944649328329</v>
+        <v>72.80413026569306</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7120640364536</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="X22" t="n">
-        <v>210.287458044222</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.53110657407782</v>
+        <v>47.06144276962453</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2288.962995379249</v>
+        <v>1677.984024827851</v>
       </c>
       <c r="C23" t="n">
-        <v>2111.279211962652</v>
+        <v>1570.228345726061</v>
       </c>
       <c r="D23" t="n">
-        <v>1751.072411200432</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="E23" t="n">
-        <v>1364.084496296101</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="F23" t="n">
-        <v>952.6765533864634</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G23" t="n">
-        <v>535.0121627141084</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H23" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I23" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J23" t="n">
-        <v>167.7421803733074</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K23" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L23" t="n">
-        <v>877.2105568248476</v>
+        <v>877.2105568248489</v>
       </c>
       <c r="M23" t="n">
-        <v>1355.324135626644</v>
+        <v>1355.324135626646</v>
       </c>
       <c r="N23" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O23" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P23" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q23" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R23" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S23" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T23" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="U23" t="n">
-        <v>2676.55532870389</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="V23" t="n">
-        <v>2676.55532870389</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="W23" t="n">
-        <v>2676.55532870389</v>
+        <v>2068.577026596777</v>
       </c>
       <c r="X23" t="n">
-        <v>2676.55532870389</v>
+        <v>2068.577026596777</v>
       </c>
       <c r="Y23" t="n">
-        <v>2676.55532870389</v>
+        <v>1677.984024827851</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C24" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D24" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E24" t="n">
-        <v>501.5285472507018</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F24" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G24" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H24" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I24" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J24" t="n">
-        <v>53.5311065740778</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K24" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L24" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M24" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N24" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O24" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P24" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q24" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R24" t="n">
         <v>2626.774708455267</v>
@@ -6113,7 +6113,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y24" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="25">
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.5311065740778</v>
+        <v>506.7362085007438</v>
       </c>
       <c r="C25" t="n">
-        <v>53.5311065740778</v>
+        <v>352.5009961576319</v>
       </c>
       <c r="D25" t="n">
-        <v>53.5311065740778</v>
+        <v>201.9903229106426</v>
       </c>
       <c r="E25" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F25" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G25" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H25" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I25" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J25" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K25" t="n">
-        <v>109.4344173802942</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L25" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M25" t="n">
         <v>381.630737830651</v>
@@ -6186,13 +6186,13 @@
         <v>727.6944649328329</v>
       </c>
       <c r="W25" t="n">
-        <v>502.9139689983985</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X25" t="n">
-        <v>274.4893630061669</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.5311065740778</v>
+        <v>506.7362085007438</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>308.2142653108175</v>
+        <v>1580.713560801156</v>
       </c>
       <c r="C26" t="n">
-        <v>207.594057906338</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="D26" t="n">
-        <v>207.594057906338</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="E26" t="n">
-        <v>207.594057906338</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="F26" t="n">
-        <v>207.594057906338</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G26" t="n">
-        <v>207.594057906338</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H26" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I26" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J26" t="n">
-        <v>167.7421803733074</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K26" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L26" t="n">
         <v>877.2105568248485</v>
@@ -6250,28 +6250,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R26" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S26" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T26" t="n">
-        <v>2400.837317313204</v>
+        <v>2520.543601819906</v>
       </c>
       <c r="U26" t="n">
-        <v>2146.929840459175</v>
+        <v>2266.636124965878</v>
       </c>
       <c r="V26" t="n">
-        <v>1815.07810154754</v>
+        <v>1934.784386054242</v>
       </c>
       <c r="W26" t="n">
-        <v>1461.007276294454</v>
+        <v>1580.713560801156</v>
       </c>
       <c r="X26" t="n">
-        <v>1086.399600404384</v>
+        <v>1580.713560801156</v>
       </c>
       <c r="Y26" t="n">
-        <v>695.806598635459</v>
+        <v>1580.713560801156</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.4794979670866</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C27" t="n">
-        <v>806.7263828889038</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D27" t="n">
-        <v>659.1380762478477</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E27" t="n">
-        <v>501.5285472507024</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F27" t="n">
-        <v>356.5727572673193</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G27" t="n">
         <v>219.9143827707589</v>
       </c>
       <c r="H27" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I27" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J27" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K27" t="n">
-        <v>309.7001854454657</v>
+        <v>239.7918714752595</v>
       </c>
       <c r="L27" t="n">
-        <v>715.0007321791047</v>
+        <v>645.0924182088986</v>
       </c>
       <c r="M27" t="n">
-        <v>1240.767547500212</v>
+        <v>1170.859233530005</v>
       </c>
       <c r="N27" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O27" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P27" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q27" t="n">
         <v>2676.555328703891</v>
@@ -6335,16 +6335,16 @@
         <v>2469.829437388747</v>
       </c>
       <c r="T27" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U27" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V27" t="n">
-        <v>1811.291875126086</v>
+        <v>1811.291875126085</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X27" t="n">
         <v>1352.250484864996</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2185.02207874274</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="C28" t="n">
-        <v>2185.02207874274</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="D28" t="n">
-        <v>2185.02207874274</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="E28" t="n">
-        <v>2185.02207874274</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="F28" t="n">
-        <v>2185.02207874274</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G28" t="n">
-        <v>2185.02207874274</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H28" t="n">
-        <v>2185.02207874274</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I28" t="n">
-        <v>2048.337204377454</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J28" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K28" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L28" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M28" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N28" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O28" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P28" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2647.854549863712</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R28" t="n">
-        <v>2500.562066762971</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S28" t="n">
-        <v>2286.752928483431</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T28" t="n">
-        <v>2185.02207874274</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U28" t="n">
-        <v>2185.02207874274</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="V28" t="n">
-        <v>2185.02207874274</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="W28" t="n">
-        <v>2185.02207874274</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="X28" t="n">
-        <v>2185.02207874274</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="Y28" t="n">
-        <v>2185.02207874274</v>
+        <v>149.8041617589672</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>825.1458502459357</v>
+        <v>1347.345534387878</v>
       </c>
       <c r="C29" t="n">
-        <v>825.1458502459357</v>
+        <v>1347.345534387878</v>
       </c>
       <c r="D29" t="n">
-        <v>464.9390494837151</v>
+        <v>1347.345534387878</v>
       </c>
       <c r="E29" t="n">
-        <v>464.9390494837151</v>
+        <v>960.3576194835473</v>
       </c>
       <c r="F29" t="n">
-        <v>53.53110657407781</v>
+        <v>548.94967657391</v>
       </c>
       <c r="G29" t="n">
-        <v>53.53110657407781</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H29" t="n">
         <v>53.53110657407781</v>
@@ -6463,7 +6463,7 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J29" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733072</v>
       </c>
       <c r="K29" t="n">
         <v>461.1915665632927</v>
@@ -6487,28 +6487,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R29" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S29" t="n">
-        <v>2443.531235093138</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.358514782327</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U29" t="n">
-        <v>1970.451037928299</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="V29" t="n">
-        <v>1638.599299016663</v>
+        <v>2125.530869481445</v>
       </c>
       <c r="W29" t="n">
-        <v>1284.528473763577</v>
+        <v>2125.530869481445</v>
       </c>
       <c r="X29" t="n">
-        <v>1212.738183570577</v>
+        <v>2125.530869481445</v>
       </c>
       <c r="Y29" t="n">
-        <v>1212.738183570577</v>
+        <v>1734.93786771252</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C30" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D30" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E30" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F30" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G30" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H30" t="n">
         <v>115.4714096068661</v>
@@ -6554,10 +6554,10 @@
         <v>1316.572925812729</v>
       </c>
       <c r="N30" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O30" t="n">
-        <v>2311.81663656517</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P30" t="n">
         <v>2502.945759567337</v>
@@ -6569,25 +6569,25 @@
         <v>2626.774708455267</v>
       </c>
       <c r="S30" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T30" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U30" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V30" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W30" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X30" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>472.203201228854</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C31" t="n">
-        <v>303.1763800862253</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D31" t="n">
-        <v>303.1763800862253</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E31" t="n">
-        <v>303.1763800862253</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F31" t="n">
-        <v>155.5410049248066</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G31" t="n">
         <v>53.53110657407781</v>
@@ -6654,19 +6654,19 @@
         <v>727.6944649328329</v>
       </c>
       <c r="U31" t="n">
-        <v>727.6944649328329</v>
+        <v>598.0047711744361</v>
       </c>
       <c r="V31" t="n">
-        <v>472.203201228854</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W31" t="n">
-        <v>472.203201228854</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X31" t="n">
-        <v>472.203201228854</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y31" t="n">
-        <v>472.203201228854</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>519.3277961045823</v>
+        <v>1467.217026640378</v>
       </c>
       <c r="C32" t="n">
-        <v>519.3277961045823</v>
+        <v>1467.217026640378</v>
       </c>
       <c r="D32" t="n">
-        <v>519.3277961045823</v>
+        <v>1107.010225878157</v>
       </c>
       <c r="E32" t="n">
-        <v>519.3277961045823</v>
+        <v>720.0223109738263</v>
       </c>
       <c r="F32" t="n">
-        <v>519.3277961045823</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G32" t="n">
-        <v>519.3277961045823</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H32" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I32" t="n">
         <v>53.53110657407781</v>
@@ -6727,25 +6727,25 @@
         <v>2620.010037624014</v>
       </c>
       <c r="S32" t="n">
-        <v>2443.531235093138</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.358514782327</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="U32" t="n">
-        <v>1970.451037928299</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="V32" t="n">
-        <v>1638.599299016663</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="W32" t="n">
-        <v>1284.528473763577</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="X32" t="n">
-        <v>909.9207978735074</v>
+        <v>2245.402361733944</v>
       </c>
       <c r="Y32" t="n">
-        <v>519.3277961045823</v>
+        <v>1854.809359965019</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>219.9143827707589</v>
       </c>
       <c r="H33" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I33" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J33" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K33" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L33" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M33" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N33" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O33" t="n">
         <v>2166.102944282447</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2676.555328703891</v>
+        <v>506.7362085007438</v>
       </c>
       <c r="C34" t="n">
-        <v>2676.555328703891</v>
+        <v>506.7362085007438</v>
       </c>
       <c r="D34" t="n">
-        <v>2526.044655456901</v>
+        <v>356.2255352537546</v>
       </c>
       <c r="E34" t="n">
-        <v>2377.585439120337</v>
+        <v>356.2255352537546</v>
       </c>
       <c r="F34" t="n">
-        <v>2229.950063958918</v>
+        <v>208.5901600923359</v>
       </c>
       <c r="G34" t="n">
-        <v>2060.984012009111</v>
+        <v>208.5901600923359</v>
       </c>
       <c r="H34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K34" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L34" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M34" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N34" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O34" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y34" t="n">
-        <v>2676.555328703891</v>
+        <v>506.7362085007438</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>424.2231224113936</v>
+        <v>1253.295455993386</v>
       </c>
       <c r="C35" t="n">
-        <v>53.53110657407781</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="D35" t="n">
-        <v>53.53110657407781</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E35" t="n">
-        <v>53.53110657407781</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F35" t="n">
-        <v>53.53110657407781</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G35" t="n">
         <v>53.53110657407781</v>
@@ -6937,13 +6937,13 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J35" t="n">
-        <v>167.7421803733074</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K35" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L35" t="n">
-        <v>877.2105568248485</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M35" t="n">
         <v>1355.324135626645</v>
@@ -6952,7 +6952,7 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O35" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P35" t="n">
         <v>2526.389973845557</v>
@@ -6961,28 +6961,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R35" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S35" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T35" t="n">
-        <v>2516.84617441378</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U35" t="n">
-        <v>2262.938697559752</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V35" t="n">
-        <v>1931.086958648116</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="W35" t="n">
-        <v>1577.01613339503</v>
+        <v>1284.528473763577</v>
       </c>
       <c r="X35" t="n">
-        <v>1202.40845750496</v>
+        <v>1253.295455993386</v>
       </c>
       <c r="Y35" t="n">
-        <v>811.8154557360351</v>
+        <v>1253.295455993386</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.4794979670861</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C36" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D36" t="n">
-        <v>659.1380762478473</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E36" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F36" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G36" t="n">
         <v>219.9143827707587</v>
@@ -7028,13 +7028,13 @@
         <v>1240.767547500212</v>
       </c>
       <c r="N36" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O36" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P36" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q36" t="n">
         <v>2676.555328703891</v>
@@ -7061,7 +7061,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y36" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.6944649328329</v>
+        <v>685.9686406817302</v>
       </c>
       <c r="C37" t="n">
-        <v>669.1024232688578</v>
+        <v>516.9418195391016</v>
       </c>
       <c r="D37" t="n">
-        <v>518.5917500218686</v>
+        <v>516.9418195391016</v>
       </c>
       <c r="E37" t="n">
-        <v>370.1325336853038</v>
+        <v>516.9418195391016</v>
       </c>
       <c r="F37" t="n">
-        <v>222.497158523885</v>
+        <v>516.9418195391016</v>
       </c>
       <c r="G37" t="n">
-        <v>53.53110657407781</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="H37" t="n">
-        <v>53.53110657407781</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I37" t="n">
         <v>53.53110657407781</v>
@@ -7140,7 +7140,7 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Y37" t="n">
-        <v>727.6944649328329</v>
+        <v>685.9686406817302</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2000.490171659937</v>
+        <v>1138.629142123495</v>
       </c>
       <c r="C38" t="n">
-        <v>1629.798155822622</v>
+        <v>767.937126286179</v>
       </c>
       <c r="D38" t="n">
-        <v>1269.591355060401</v>
+        <v>767.937126286179</v>
       </c>
       <c r="E38" t="n">
-        <v>882.6034401560701</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="F38" t="n">
-        <v>471.1954972464328</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="G38" t="n">
-        <v>53.53110657407781</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H38" t="n">
         <v>53.53110657407781</v>
@@ -7174,13 +7174,13 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J38" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K38" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L38" t="n">
-        <v>877.2105568248481</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M38" t="n">
         <v>1355.324135626645</v>
@@ -7189,7 +7189,7 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O38" t="n">
-        <v>2223.65047400805</v>
+        <v>2223.650474008049</v>
       </c>
       <c r="P38" t="n">
         <v>2526.389973845557</v>
@@ -7198,28 +7198,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R38" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S38" t="n">
-        <v>2500.076526173014</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T38" t="n">
-        <v>2500.076526173014</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U38" t="n">
-        <v>2500.076526173014</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="V38" t="n">
-        <v>2500.076526173014</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="W38" t="n">
-        <v>2500.076526173014</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="X38" t="n">
-        <v>2500.076526173014</v>
+        <v>1916.814477217061</v>
       </c>
       <c r="Y38" t="n">
-        <v>2388.082504984579</v>
+        <v>1526.221475448136</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>356.5727572673188</v>
       </c>
       <c r="G39" t="n">
-        <v>219.9143827707585</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H39" t="n">
-        <v>115.471409606866</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I39" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J39" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K39" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L39" t="n">
-        <v>645.0924182088986</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M39" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O39" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P39" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q39" t="n">
         <v>2676.555328703891</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2511.747917342478</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C40" t="n">
-        <v>2511.747917342478</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D40" t="n">
-        <v>2511.747917342478</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E40" t="n">
-        <v>2511.747917342478</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F40" t="n">
-        <v>2511.747917342478</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G40" t="n">
-        <v>2342.781865392671</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H40" t="n">
-        <v>2185.02207874274</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I40" t="n">
-        <v>2048.337204377454</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J40" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K40" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L40" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M40" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N40" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O40" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P40" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q40" t="n">
-        <v>2647.854549863712</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R40" t="n">
-        <v>2511.747917342478</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S40" t="n">
-        <v>2511.747917342478</v>
+        <v>631.4214097479435</v>
       </c>
       <c r="T40" t="n">
-        <v>2511.747917342478</v>
+        <v>631.4214097479435</v>
       </c>
       <c r="U40" t="n">
-        <v>2511.747917342478</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="V40" t="n">
-        <v>2511.747917342478</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W40" t="n">
-        <v>2511.747917342478</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X40" t="n">
-        <v>2511.747917342478</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y40" t="n">
-        <v>2511.747917342478</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1870.287689529242</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="C41" t="n">
-        <v>1870.287689529242</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="D41" t="n">
-        <v>1510.080888767021</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E41" t="n">
-        <v>1123.092973862691</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F41" t="n">
-        <v>711.6850309530532</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G41" t="n">
-        <v>294.0206402806982</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H41" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I41" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J41" t="n">
-        <v>167.7421803733074</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K41" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L41" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248489</v>
       </c>
       <c r="M41" t="n">
-        <v>1355.324135626645</v>
+        <v>1355.324135626646</v>
       </c>
       <c r="N41" t="n">
         <v>1825.656916993543</v>
@@ -7435,28 +7435,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R41" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S41" t="n">
-        <v>2443.531235093138</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.358514782327</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.358514782327</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.358514782327</v>
+        <v>2090.796112938227</v>
       </c>
       <c r="W41" t="n">
-        <v>1870.287689529242</v>
+        <v>1736.725287685141</v>
       </c>
       <c r="X41" t="n">
-        <v>1870.287689529242</v>
+        <v>1660.788775249637</v>
       </c>
       <c r="Y41" t="n">
-        <v>1870.287689529242</v>
+        <v>1270.195773480712</v>
       </c>
     </row>
     <row r="42">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.2952989513676</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C43" t="n">
-        <v>183.2952989513676</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D43" t="n">
         <v>53.53110657407781</v>
@@ -7605,16 +7605,16 @@
         <v>438.7865626553465</v>
       </c>
       <c r="V43" t="n">
-        <v>183.2952989513676</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W43" t="n">
-        <v>183.2952989513676</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X43" t="n">
-        <v>183.2952989513676</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.2952989513676</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1644.462516756295</v>
+        <v>1129.093518184318</v>
       </c>
       <c r="C44" t="n">
-        <v>1273.770500918979</v>
+        <v>1129.093518184318</v>
       </c>
       <c r="D44" t="n">
-        <v>913.5637001567588</v>
+        <v>1129.093518184318</v>
       </c>
       <c r="E44" t="n">
-        <v>526.575785252428</v>
+        <v>742.1056032799868</v>
       </c>
       <c r="F44" t="n">
-        <v>115.1678423427907</v>
+        <v>625.258448578693</v>
       </c>
       <c r="G44" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="H44" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I44" t="n">
         <v>53.53110657407781</v>
@@ -7651,10 +7651,10 @@
         <v>167.7421803733073</v>
       </c>
       <c r="K44" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L44" t="n">
-        <v>877.2105568248481</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M44" t="n">
         <v>1355.324135626645</v>
@@ -7672,28 +7672,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R44" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S44" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T44" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="U44" t="n">
-        <v>2422.647851849862</v>
+        <v>2189.623758239109</v>
       </c>
       <c r="V44" t="n">
-        <v>2422.647851849862</v>
+        <v>1857.772019327473</v>
       </c>
       <c r="W44" t="n">
-        <v>2422.647851849862</v>
+        <v>1503.701194074388</v>
       </c>
       <c r="X44" t="n">
-        <v>2422.647851849862</v>
+        <v>1129.093518184318</v>
       </c>
       <c r="Y44" t="n">
-        <v>2032.054850080937</v>
+        <v>1129.093518184318</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C45" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D45" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E45" t="n">
-        <v>501.5285472507018</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F45" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G45" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I45" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J45" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K45" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L45" t="n">
-        <v>645.0924182088986</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M45" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N45" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O45" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P45" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q45" t="n">
         <v>2676.555328703891</v>
@@ -7772,7 +7772,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.2208003324747</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C46" t="n">
-        <v>183.2208003324747</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D46" t="n">
-        <v>183.2208003324747</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E46" t="n">
-        <v>183.2208003324747</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F46" t="n">
-        <v>183.2208003324747</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G46" t="n">
         <v>53.53110657407781</v>
@@ -7839,19 +7839,19 @@
         <v>727.6944649328329</v>
       </c>
       <c r="U46" t="n">
-        <v>727.6944649328329</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="V46" t="n">
-        <v>472.203201228854</v>
+        <v>281.9557125663094</v>
       </c>
       <c r="W46" t="n">
-        <v>183.2208003324747</v>
+        <v>281.9557125663094</v>
       </c>
       <c r="X46" t="n">
-        <v>183.2208003324747</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.2208003324747</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>139.1386460980858</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>402.3419766228525</v>
+        <v>210.6142818167799</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
@@ -8078,7 +8078,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8236,7 +8236,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8294,19 +8294,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>224.4195062895551</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>379.1995711355881</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8315,7 +8315,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8534,22 +8534,22 @@
         <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7176364193258</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8768,28 +8768,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>109.8042458063404</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>110.7022847320474</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>160.8586700995331</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>454.7641991243837</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>443.2577165718076</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>251.1088800285651</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>62.23134199393841</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>54.56358754946163</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>204.4293879373183</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9020,13 +9020,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
-        <v>409.6168120477987</v>
+        <v>329.5244126908291</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>62.23134199393841</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,10 +9242,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>68.7107221185443</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>257.375401771593</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.2948314849568</v>
+        <v>62.23134199393841</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9491,7 +9491,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>262.1746327089816</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.29483148495679</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9728,7 +9728,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.8659206895194</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,10 +9953,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>275.0438464930818</v>
+        <v>127.8582987327544</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789565</v>
       </c>
       <c r="K29" t="n">
         <v>337.1112290740114</v>
@@ -10202,13 +10202,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>184.015731625208</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
         <v>218.4803792452831</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10436,13 +10436,13 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>337.1477185396726</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
         <v>498.5160693172957</v>
       </c>
       <c r="O33" t="n">
-        <v>409.6168120477987</v>
+        <v>339.0023534920351</v>
       </c>
       <c r="P33" t="n">
         <v>331.2012793855346</v>
@@ -10676,7 +10676,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>427.901610761532</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10901,13 +10901,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
-        <v>238.4884113552702</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
         <v>484.3332662999999</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.29483148495633</v>
+        <v>71.29483148495635</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11375,13 +11375,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>238.4884113552702</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22561,10 +22561,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G2" t="n">
-        <v>140.5709580622284</v>
+        <v>173.2655878973476</v>
       </c>
       <c r="H2" t="n">
-        <v>73.74868211661192</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I2" t="n">
         <v>205.224307868124</v>
@@ -22603,10 +22603,10 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W2" t="n">
         <v>76.2463096589521</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>121.6204478766291</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
@@ -22637,16 +22637,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>98.41460914303863</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22682,7 +22682,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22722,10 +22722,10 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>136.4794921647121</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
         <v>88.83884492777894</v>
@@ -22767,7 +22767,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W4" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X4" t="n">
         <v>226.1403599323093</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -22795,19 +22795,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G5" t="n">
-        <v>178.2973326412453</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>105.4859530625178</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
         <v>222.9651171964204</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.59846856447039</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>139.7442646304933</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22950,10 +22950,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E7" t="n">
-        <v>146.9746241731992</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="F7" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.8895889301081</v>
@@ -22962,10 +22962,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>63.68426508357422</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
         <v>14.77440971783335</v>
@@ -23032,13 +23032,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G8" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>238.4055485825472</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>164.4348476484183</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>83.24403605565544</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23156,16 +23156,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23187,10 +23187,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>146.9746241731992</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="F10" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.8895889301081</v>
@@ -23199,13 +23199,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>332.0133133053249</v>
       </c>
       <c r="D11" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>29.75736126340104</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>53.93318898865442</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>61.21985987830681</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>24.09535272245773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>194.6520159438067</v>
+        <v>163.3117380016203</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>124.6246575341331</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>199.6159120445202</v>
+        <v>181.0913913621372</v>
       </c>
       <c r="T11" t="n">
-        <v>221.7646708466713</v>
+        <v>218.2060931489365</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4558250938534</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.6870717512358</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.87648366662</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H12" t="n">
-        <v>109.0454460589492</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I12" t="n">
-        <v>81.45177448909043</v>
+        <v>66.47641768350113</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>85.58506362992524</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>26.52392501690687</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>107.3836310546999</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
         <v>149.0055665145194</v>
@@ -23430,19 +23430,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7665783291587</v>
+        <v>167.4019283127586</v>
       </c>
       <c r="H13" t="n">
-        <v>160.5403959386579</v>
+        <v>157.2983257928464</v>
       </c>
       <c r="I13" t="n">
-        <v>51.58769803458433</v>
+        <v>139.0932620502043</v>
       </c>
       <c r="J13" t="n">
-        <v>80.14199544065856</v>
+        <v>54.36123928117396</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4828144438975972</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.46023946362421</v>
+        <v>38.92577309034238</v>
       </c>
       <c r="R13" t="n">
-        <v>167.8601437398225</v>
+        <v>151.4641530024159</v>
       </c>
       <c r="S13" t="n">
-        <v>220.2136676703322</v>
+        <v>213.8588123845238</v>
       </c>
       <c r="T13" t="n">
-        <v>227.8068752419967</v>
+        <v>226.2488251719237</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0455607219215</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>260.6073162663077</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>254.4725081764661</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>324.1439237596927</v>
+        <v>288.8428743385041</v>
       </c>
       <c r="I14" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.55977888071591</v>
       </c>
       <c r="S14" t="n">
-        <v>174.714014505568</v>
+        <v>181.0913913621372</v>
       </c>
       <c r="T14" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>26.52392501690669</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>66.47641768350113</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>98.17606753609661</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4019283127586</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.2983257928464</v>
       </c>
       <c r="I16" t="n">
-        <v>135.3180256216325</v>
+        <v>139.0932620502043</v>
       </c>
       <c r="J16" t="n">
-        <v>45.48578169199547</v>
+        <v>54.36123928117396</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.41377105177699</v>
+        <v>38.92577309034238</v>
       </c>
       <c r="R16" t="n">
-        <v>145.8195582697328</v>
+        <v>151.4641530024159</v>
       </c>
       <c r="S16" t="n">
-        <v>211.671046896745</v>
+        <v>213.8588123845238</v>
       </c>
       <c r="T16" t="n">
-        <v>225.7124403105487</v>
+        <v>200.7635645508158</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.0925768874155</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>219.3260784894893</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4877467656314</v>
+        <v>105.065599257352</v>
       </c>
       <c r="H17" t="n">
-        <v>324.1439237596927</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I17" t="n">
-        <v>152.5223218189376</v>
+        <v>163.3117380016203</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.0913913621372</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.2060931489365</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>66.47641768350113</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>26.52392501690675</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>38.80984097679233</v>
+        <v>167.4019283127586</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1821887834319</v>
+        <v>157.2983257928464</v>
       </c>
       <c r="I19" t="n">
-        <v>135.3180256216325</v>
+        <v>139.0932620502043</v>
       </c>
       <c r="J19" t="n">
-        <v>45.48578169199548</v>
+        <v>54.36123928117396</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.413771051777</v>
+        <v>38.92577309034238</v>
       </c>
       <c r="R19" t="n">
-        <v>145.8195582697328</v>
+        <v>151.4641530024159</v>
       </c>
       <c r="S19" t="n">
-        <v>211.671046896745</v>
+        <v>213.8588123845238</v>
       </c>
       <c r="T19" t="n">
-        <v>225.7124403105487</v>
+        <v>133.4865676975571</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.025670721027</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,13 +23974,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.3117380016203</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.55977888071591</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.0913913621372</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>100.4820481865426</v>
+        <v>62.1841707363528</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>66.47641768350113</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>26.52392501690676</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2763914303091</v>
+        <v>167.4019283127586</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1821887834319</v>
+        <v>157.2983257928464</v>
       </c>
       <c r="I22" t="n">
-        <v>135.3180256216325</v>
+        <v>139.0932620502043</v>
       </c>
       <c r="J22" t="n">
-        <v>45.48578169199548</v>
+        <v>54.36123928117396</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.413771051777</v>
+        <v>38.92577309034238</v>
       </c>
       <c r="R22" t="n">
-        <v>145.8195582697328</v>
+        <v>151.4641530024159</v>
       </c>
       <c r="S22" t="n">
-        <v>211.671046896745</v>
+        <v>213.8588123845238</v>
       </c>
       <c r="T22" t="n">
-        <v>225.7124403105487</v>
+        <v>226.2488251719237</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>260.6073162663077</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.55988591232546</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>191.0781500965119</v>
+        <v>260.3069733681702</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>216.980993107702</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,13 +24366,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>14.64369271152154</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -24426,10 +24426,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>63.55988591232546</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>267.3710903485079</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
@@ -24454,16 +24454,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S26" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>62.5293834925574</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24612,7 +24612,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>50.848696776764</v>
       </c>
       <c r="G28" t="n">
         <v>167.2763914303091</v>
@@ -24621,10 +24621,10 @@
         <v>156.1821887834319</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T28" t="n">
-        <v>124.9988990672644</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24685,19 +24685,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4877467656314</v>
+        <v>247.1672862254903</v>
       </c>
       <c r="H29" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>152.5223218189376</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>299.789211840099</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -24849,10 +24849,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>66.28659206308761</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H31" t="n">
         <v>156.1821887834319</v>
@@ -24894,13 +24894,13 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0188232547115</v>
+        <v>157.6260264338987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>160.9553178904213</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>15.52752294343088</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H34" t="n">
-        <v>98.17606753609677</v>
+        <v>2.673725800356436</v>
       </c>
       <c r="I34" t="n">
         <v>135.3180256216325</v>
@@ -25143,7 +25143,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>324.1439237596927</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>58.86893036049284</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>339.9409115386798</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>109.330431683867</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.48578169199548</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>177.4401078591765</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H38" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>152.5223218189376</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3684020854885</v>
@@ -25456,10 +25456,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>66.39300194155601</v>
       </c>
       <c r="Y38" t="n">
-        <v>275.8129907746851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25563,16 +25563,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R40" t="n">
-        <v>11.07399207371145</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S40" t="n">
-        <v>211.671046896745</v>
+        <v>116.3607222637045</v>
       </c>
       <c r="T40" t="n">
         <v>225.7124403105487</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>238.5816072090761</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>295.6844518200199</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>20.53901606100251</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>157.6260264338986</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>291.61518032626</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4673783546056</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I44" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.980993107702</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>38.88359460949626</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H46" t="n">
         <v>156.1821887834319</v>
@@ -26079,16 +26079,16 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>97.67380947879238</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>485168.3371061821</v>
+        <v>485168.3371061822</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>485168.337106182</v>
+        <v>485168.3371061821</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>543453.6272531818</v>
+        <v>716317.1427409207</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775828.2032521871</v>
+        <v>716317.1427409207</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775828.2032521871</v>
+        <v>716317.1427409207</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775828.2032521871</v>
+        <v>716317.1427409209</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775828.2032521871</v>
+        <v>775828.203252187</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775828.203252187</v>
+        <v>775828.2032521869</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>155859.4114581157</v>
       </c>
       <c r="C2" t="n">
+        <v>155859.4114581156</v>
+      </c>
+      <c r="D2" t="n">
         <v>155859.4114581157</v>
       </c>
-      <c r="D2" t="n">
-        <v>155859.4114581156</v>
-      </c>
       <c r="E2" t="n">
-        <v>175907.8362908073</v>
+        <v>235365.1139675696</v>
       </c>
       <c r="F2" t="n">
-        <v>255834.243039991</v>
+        <v>235365.1139675695</v>
       </c>
       <c r="G2" t="n">
-        <v>255834.2430399909</v>
+        <v>235365.1139675696</v>
       </c>
       <c r="H2" t="n">
-        <v>255834.2430399909</v>
+        <v>235365.1139675696</v>
       </c>
       <c r="I2" t="n">
-        <v>255834.2430399909</v>
+        <v>255834.2430399911</v>
       </c>
       <c r="J2" t="n">
-        <v>255834.2430399909</v>
+        <v>255834.2430399911</v>
       </c>
       <c r="K2" t="n">
         <v>255834.2430399909</v>
       </c>
       <c r="L2" t="n">
-        <v>255834.243039991</v>
+        <v>255834.2430399909</v>
       </c>
       <c r="M2" t="n">
-        <v>255834.243039991</v>
+        <v>255834.2430399911</v>
       </c>
       <c r="N2" t="n">
         <v>255834.2430399911</v>
       </c>
       <c r="O2" t="n">
-        <v>255834.2430399909</v>
+        <v>255834.243039991</v>
       </c>
       <c r="P2" t="n">
-        <v>255834.2430399908</v>
+        <v>255834.243039991</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>78414.72407550721</v>
+        <v>311013.0387995449</v>
       </c>
       <c r="F3" t="n">
-        <v>305346.0413079453</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>73908.54814175429</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808627</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>19706.27160131936</v>
+        <v>78246.12537476211</v>
       </c>
       <c r="N3" t="n">
-        <v>77342.59682709025</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>35113.13447355731</v>
       </c>
       <c r="E4" t="n">
-        <v>35541.24419479463</v>
+        <v>36820.47543363811</v>
       </c>
       <c r="F4" t="n">
-        <v>37260.87822105204</v>
+        <v>36820.47543363812</v>
       </c>
       <c r="G4" t="n">
-        <v>37260.87822105204</v>
+        <v>36820.47543363811</v>
       </c>
       <c r="H4" t="n">
-        <v>37260.87822105204</v>
+        <v>36820.47543363812</v>
       </c>
       <c r="I4" t="n">
         <v>37260.87822105204</v>
@@ -26478,19 +26478,19 @@
         <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>22971.41534676552</v>
+        <v>41662.07004083534</v>
       </c>
       <c r="F5" t="n">
-        <v>48096.64131659552</v>
+        <v>41662.07004083534</v>
       </c>
       <c r="G5" t="n">
-        <v>48096.64131659552</v>
+        <v>41662.07004083534</v>
       </c>
       <c r="H5" t="n">
-        <v>48096.64131659552</v>
+        <v>41662.07004083534</v>
       </c>
       <c r="I5" t="n">
-        <v>48096.6413165955</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="J5" t="n">
         <v>48096.64131659551</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21476.59086955091</v>
+        <v>-33165.71989280677</v>
       </c>
       <c r="C6" t="n">
-        <v>70442.22149818894</v>
+        <v>58753.09247493304</v>
       </c>
       <c r="D6" t="n">
-        <v>70442.22149818882</v>
+        <v>58753.09247493307</v>
       </c>
       <c r="E6" t="n">
-        <v>38980.45267373996</v>
+        <v>-161402.6158569572</v>
       </c>
       <c r="F6" t="n">
-        <v>-134869.3178056018</v>
+        <v>149610.4229425876</v>
       </c>
       <c r="G6" t="n">
-        <v>170476.7235023434</v>
+        <v>149610.4229425877</v>
       </c>
       <c r="H6" t="n">
-        <v>170476.7235023434</v>
+        <v>149610.4229425877</v>
       </c>
       <c r="I6" t="n">
-        <v>170476.7235023433</v>
+        <v>90433.20364743751</v>
       </c>
       <c r="J6" t="n">
-        <v>98712.01101425706</v>
+        <v>92577.03930110554</v>
       </c>
       <c r="K6" t="n">
-        <v>170476.7235023433</v>
+        <v>164341.7517891916</v>
       </c>
       <c r="L6" t="n">
-        <v>170476.7235023435</v>
+        <v>164341.7517891917</v>
       </c>
       <c r="M6" t="n">
-        <v>150770.4519010241</v>
+        <v>86095.62641442969</v>
       </c>
       <c r="N6" t="n">
-        <v>93134.12667525327</v>
+        <v>164341.7517891918</v>
       </c>
       <c r="O6" t="n">
-        <v>170476.7235023433</v>
+        <v>164341.7517891917</v>
       </c>
       <c r="P6" t="n">
-        <v>170476.7235023432</v>
+        <v>164341.7517891917</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>68.21496961737725</v>
+        <v>270.4299787119589</v>
       </c>
       <c r="F3" t="n">
-        <v>340.045886252127</v>
+        <v>270.4299787119589</v>
       </c>
       <c r="G3" t="n">
-        <v>340.045886252127</v>
+        <v>270.4299787119589</v>
       </c>
       <c r="H3" t="n">
-        <v>340.045886252127</v>
+        <v>270.4299787119589</v>
       </c>
       <c r="I3" t="n">
         <v>340.045886252127</v>
@@ -26798,19 +26798,19 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>353.3606744918864</v>
+        <v>588.2680346203066</v>
       </c>
       <c r="F4" t="n">
-        <v>669.1388321759728</v>
+        <v>588.2680346203066</v>
       </c>
       <c r="G4" t="n">
-        <v>669.1388321759728</v>
+        <v>588.2680346203066</v>
       </c>
       <c r="H4" t="n">
-        <v>669.1388321759728</v>
+        <v>588.2680346203066</v>
       </c>
       <c r="I4" t="n">
-        <v>669.1388321759725</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="J4" t="n">
         <v>669.1388321759727</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>68.21496961737725</v>
+        <v>270.4299787119589</v>
       </c>
       <c r="F3" t="n">
-        <v>271.8309166347498</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>69.61590754016811</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>79.07686715028393</v>
+        <v>313.9842272787041</v>
       </c>
       <c r="F4" t="n">
-        <v>315.7781576840864</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>80.87079755566606</v>
       </c>
       <c r="J4" t="n">
-        <v>274.2838073416026</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>79.07686715028393</v>
+        <v>313.9842272787038</v>
       </c>
       <c r="N4" t="n">
-        <v>315.7781576840865</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>79.07686715028393</v>
+        <v>313.9842272787041</v>
       </c>
       <c r="N4" t="n">
-        <v>315.7781576840864</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2742310336376973</v>
+        <v>1.087155693314407</v>
       </c>
       <c r="H11" t="n">
-        <v>2.808468573242068</v>
+        <v>11.13383324415617</v>
       </c>
       <c r="I11" t="n">
-        <v>10.57229192431734</v>
+        <v>41.91256986650371</v>
       </c>
       <c r="J11" t="n">
-        <v>23.27501619120753</v>
+        <v>92.27098052544372</v>
       </c>
       <c r="K11" t="n">
-        <v>34.88321584509126</v>
+        <v>138.2902810234426</v>
       </c>
       <c r="L11" t="n">
-        <v>43.27571384078095</v>
+        <v>171.5613220727134</v>
       </c>
       <c r="M11" t="n">
-        <v>48.15256998523535</v>
+        <v>190.8950271336935</v>
       </c>
       <c r="N11" t="n">
-        <v>48.93172890955846</v>
+        <v>193.983908247323</v>
       </c>
       <c r="O11" t="n">
-        <v>46.2048440688236</v>
+        <v>183.1735038219279</v>
       </c>
       <c r="P11" t="n">
-        <v>39.43476542589295</v>
+        <v>156.3343476432285</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.6138665337429</v>
+        <v>117.4005843764062</v>
       </c>
       <c r="R11" t="n">
-        <v>17.22616516674402</v>
+        <v>68.29104382016116</v>
       </c>
       <c r="S11" t="n">
-        <v>6.249039679019033</v>
+        <v>24.77356036140207</v>
       </c>
       <c r="T11" t="n">
-        <v>1.200446349749021</v>
+        <v>4.759024047483818</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02193848269101578</v>
+        <v>0.08697245546515252</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1467265384222831</v>
+        <v>0.581679576852138</v>
       </c>
       <c r="H12" t="n">
-        <v>1.41706946318363</v>
+        <v>5.617800123808808</v>
       </c>
       <c r="I12" t="n">
-        <v>5.051768976381241</v>
+        <v>20.02712578197054</v>
       </c>
       <c r="J12" t="n">
-        <v>13.86244019365966</v>
+        <v>54.95596388145573</v>
       </c>
       <c r="K12" t="n">
-        <v>23.69311826795263</v>
+        <v>93.92849553054897</v>
       </c>
       <c r="L12" t="n">
-        <v>31.85832142366284</v>
+        <v>126.2984537371276</v>
       </c>
       <c r="M12" t="n">
-        <v>37.1771584414706</v>
+        <v>147.3843383980176</v>
       </c>
       <c r="N12" t="n">
-        <v>38.16112720132881</v>
+        <v>151.2851632796269</v>
       </c>
       <c r="O12" t="n">
-        <v>34.90997600786664</v>
+        <v>138.3963684451664</v>
       </c>
       <c r="P12" t="n">
-        <v>28.01833346416388</v>
+        <v>111.0752869166157</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.7295139221146</v>
+        <v>74.25088773993257</v>
       </c>
       <c r="R12" t="n">
-        <v>9.109916131165969</v>
+        <v>36.11515828911784</v>
       </c>
       <c r="S12" t="n">
-        <v>2.725381097448985</v>
+        <v>10.80444301740703</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5914109158336761</v>
+        <v>2.344576890908397</v>
       </c>
       <c r="U12" t="n">
-        <v>0.009653061738308105</v>
+        <v>0.03826839321395646</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1230106009493688</v>
+        <v>0.487660617349434</v>
       </c>
       <c r="H13" t="n">
-        <v>1.093676070258934</v>
+        <v>4.335746216070425</v>
       </c>
       <c r="I13" t="n">
-        <v>3.699264254004655</v>
+        <v>14.66528474719935</v>
       </c>
       <c r="J13" t="n">
-        <v>8.696849487120373</v>
+        <v>34.47760564660498</v>
       </c>
       <c r="K13" t="n">
-        <v>14.29159527393575</v>
+        <v>56.65729717932513</v>
       </c>
       <c r="L13" t="n">
-        <v>18.2883215265998</v>
+        <v>72.50183396484222</v>
       </c>
       <c r="M13" t="n">
-        <v>19.28247083790878</v>
+        <v>76.44301840869353</v>
       </c>
       <c r="N13" t="n">
-        <v>18.82397677982479</v>
+        <v>74.62537428948207</v>
       </c>
       <c r="O13" t="n">
-        <v>17.38698930509806</v>
+        <v>68.92861162317276</v>
       </c>
       <c r="P13" t="n">
-        <v>14.87757304573093</v>
+        <v>58.98033502924424</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.30046041222396</v>
+        <v>40.83492678550579</v>
       </c>
       <c r="R13" t="n">
-        <v>5.531003929959799</v>
+        <v>21.92699466736636</v>
       </c>
       <c r="S13" t="n">
-        <v>2.143739291090363</v>
+        <v>8.498594576898769</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5255907495109393</v>
+        <v>2.083640819583945</v>
       </c>
       <c r="U13" t="n">
-        <v>0.006709669142692851</v>
+        <v>0.02659967003724189</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.367018638199505</v>
+        <v>1.087155693314407</v>
       </c>
       <c r="H14" t="n">
-        <v>13.99997962846068</v>
+        <v>11.13383324415617</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70198604918645</v>
+        <v>41.91256986650371</v>
       </c>
       <c r="J14" t="n">
-        <v>116.0239981438853</v>
+        <v>92.27098052544372</v>
       </c>
       <c r="K14" t="n">
-        <v>173.8898970988704</v>
+        <v>138.2902810234426</v>
       </c>
       <c r="L14" t="n">
-        <v>215.7257937476685</v>
+        <v>171.5613220727134</v>
       </c>
       <c r="M14" t="n">
-        <v>240.036511454749</v>
+        <v>190.8950271336935</v>
       </c>
       <c r="N14" t="n">
-        <v>243.9205531605333</v>
+        <v>193.983908247323</v>
       </c>
       <c r="O14" t="n">
-        <v>230.327261576937</v>
+        <v>183.1735038219279</v>
       </c>
       <c r="P14" t="n">
-        <v>196.5789889463867</v>
+        <v>156.3343476432285</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.6226339658669</v>
+        <v>117.4005843764062</v>
       </c>
       <c r="R14" t="n">
-        <v>85.87098453179971</v>
+        <v>68.29104382016116</v>
       </c>
       <c r="S14" t="n">
-        <v>31.15093721797124</v>
+        <v>24.77356036140207</v>
       </c>
       <c r="T14" t="n">
-        <v>5.984124088718334</v>
+        <v>4.759024047483818</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1093614910559604</v>
+        <v>0.08697245546515252</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.581679576852138</v>
       </c>
       <c r="H15" t="n">
-        <v>7.063972089879093</v>
+        <v>5.617800123808808</v>
       </c>
       <c r="I15" t="n">
-        <v>25.1826434630113</v>
+        <v>20.02712578197054</v>
       </c>
       <c r="J15" t="n">
-        <v>69.1030984505384</v>
+        <v>54.95596388145573</v>
       </c>
       <c r="K15" t="n">
-        <v>118.1082018315525</v>
+        <v>93.92849553054897</v>
       </c>
       <c r="L15" t="n">
-        <v>158.8110528199203</v>
+        <v>126.2984537371276</v>
       </c>
       <c r="M15" t="n">
-        <v>185.3250080074092</v>
+        <v>147.3843383980176</v>
       </c>
       <c r="N15" t="n">
-        <v>190.2300095175932</v>
+        <v>151.2851632796269</v>
       </c>
       <c r="O15" t="n">
-        <v>174.0232942596145</v>
+        <v>138.3963684451664</v>
       </c>
       <c r="P15" t="n">
-        <v>139.6690358079727</v>
+        <v>111.0752869166157</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.36505163662176</v>
+        <v>74.25088773993257</v>
       </c>
       <c r="R15" t="n">
-        <v>45.41216571495389</v>
+        <v>36.11515828911784</v>
       </c>
       <c r="S15" t="n">
-        <v>13.58579554979016</v>
+        <v>10.80444301740703</v>
       </c>
       <c r="T15" t="n">
-        <v>2.948133674204761</v>
+        <v>2.344576890908397</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.03826839321395646</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.487660617349434</v>
       </c>
       <c r="H16" t="n">
-        <v>5.451883225484925</v>
+        <v>4.335746216070425</v>
       </c>
       <c r="I16" t="n">
-        <v>18.44052117577109</v>
+        <v>14.66528474719935</v>
       </c>
       <c r="J16" t="n">
-        <v>43.35306323578347</v>
+        <v>34.47760564660498</v>
       </c>
       <c r="K16" t="n">
-        <v>71.24240043118331</v>
+        <v>56.65729717932513</v>
       </c>
       <c r="L16" t="n">
-        <v>91.16574465192272</v>
+        <v>72.50183396484222</v>
       </c>
       <c r="M16" t="n">
-        <v>96.12149535484303</v>
+        <v>76.44301840869353</v>
       </c>
       <c r="N16" t="n">
-        <v>93.83594103741079</v>
+        <v>74.62537428948207</v>
       </c>
       <c r="O16" t="n">
-        <v>86.67267933521431</v>
+        <v>68.92861162317276</v>
       </c>
       <c r="P16" t="n">
-        <v>74.16345033931633</v>
+        <v>58.98033502924424</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.34692882407118</v>
+        <v>40.83492678550579</v>
       </c>
       <c r="R16" t="n">
-        <v>27.5715894000495</v>
+        <v>21.92699466736636</v>
       </c>
       <c r="S16" t="n">
-        <v>10.6863600646775</v>
+        <v>8.498594576898769</v>
       </c>
       <c r="T16" t="n">
-        <v>2.620025680959011</v>
+        <v>2.083640819583945</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03344713635266827</v>
+        <v>0.02659967003724189</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.367018638199504</v>
+        <v>1.087155693314407</v>
       </c>
       <c r="H17" t="n">
-        <v>13.99997962846068</v>
+        <v>11.13383324415617</v>
       </c>
       <c r="I17" t="n">
-        <v>52.70198604918644</v>
+        <v>41.91256986650371</v>
       </c>
       <c r="J17" t="n">
-        <v>116.0239981438853</v>
+        <v>92.27098052544372</v>
       </c>
       <c r="K17" t="n">
-        <v>173.8898970988704</v>
+        <v>138.2902810234426</v>
       </c>
       <c r="L17" t="n">
-        <v>215.7257937476685</v>
+        <v>171.5613220727134</v>
       </c>
       <c r="M17" t="n">
-        <v>240.0365114547489</v>
+        <v>190.8950271336935</v>
       </c>
       <c r="N17" t="n">
-        <v>243.9205531605333</v>
+        <v>193.983908247323</v>
       </c>
       <c r="O17" t="n">
-        <v>230.3272615769369</v>
+        <v>183.1735038219279</v>
       </c>
       <c r="P17" t="n">
-        <v>196.5789889463866</v>
+        <v>156.3343476432285</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.6226339658668</v>
+        <v>117.4005843764062</v>
       </c>
       <c r="R17" t="n">
-        <v>85.87098453179969</v>
+        <v>68.29104382016116</v>
       </c>
       <c r="S17" t="n">
-        <v>31.15093721797124</v>
+        <v>24.77356036140207</v>
       </c>
       <c r="T17" t="n">
-        <v>5.984124088718334</v>
+        <v>4.759024047483818</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.08697245546515252</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.581679576852138</v>
       </c>
       <c r="H18" t="n">
-        <v>7.063972089879092</v>
+        <v>5.617800123808808</v>
       </c>
       <c r="I18" t="n">
-        <v>25.1826434630113</v>
+        <v>20.02712578197054</v>
       </c>
       <c r="J18" t="n">
-        <v>69.10309845053838</v>
+        <v>54.95596388145573</v>
       </c>
       <c r="K18" t="n">
-        <v>118.1082018315525</v>
+        <v>93.92849553054897</v>
       </c>
       <c r="L18" t="n">
-        <v>158.8110528199203</v>
+        <v>126.2984537371276</v>
       </c>
       <c r="M18" t="n">
-        <v>185.3250080074092</v>
+        <v>147.3843383980176</v>
       </c>
       <c r="N18" t="n">
-        <v>190.2300095175932</v>
+        <v>151.2851632796269</v>
       </c>
       <c r="O18" t="n">
-        <v>174.0232942596145</v>
+        <v>138.3963684451664</v>
       </c>
       <c r="P18" t="n">
-        <v>139.6690358079727</v>
+        <v>111.0752869166157</v>
       </c>
       <c r="Q18" t="n">
-        <v>93.36505163662174</v>
+        <v>74.25088773993257</v>
       </c>
       <c r="R18" t="n">
-        <v>45.41216571495389</v>
+        <v>36.11515828911784</v>
       </c>
       <c r="S18" t="n">
-        <v>13.58579554979016</v>
+        <v>10.80444301740703</v>
       </c>
       <c r="T18" t="n">
-        <v>2.94813367420476</v>
+        <v>2.344576890908397</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.03826839321395646</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.487660617349434</v>
       </c>
       <c r="H19" t="n">
-        <v>5.451883225484925</v>
+        <v>4.335746216070425</v>
       </c>
       <c r="I19" t="n">
-        <v>18.44052117577109</v>
+        <v>14.66528474719935</v>
       </c>
       <c r="J19" t="n">
-        <v>43.35306323578346</v>
+        <v>34.47760564660498</v>
       </c>
       <c r="K19" t="n">
-        <v>71.2424004311833</v>
+        <v>56.65729717932513</v>
       </c>
       <c r="L19" t="n">
-        <v>91.16574465192271</v>
+        <v>72.50183396484222</v>
       </c>
       <c r="M19" t="n">
-        <v>96.12149535484302</v>
+        <v>76.44301840869353</v>
       </c>
       <c r="N19" t="n">
-        <v>93.83594103741078</v>
+        <v>74.62537428948207</v>
       </c>
       <c r="O19" t="n">
-        <v>86.6726793352143</v>
+        <v>68.92861162317276</v>
       </c>
       <c r="P19" t="n">
-        <v>74.16345033931631</v>
+        <v>58.98033502924424</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.34692882407117</v>
+        <v>40.83492678550579</v>
       </c>
       <c r="R19" t="n">
-        <v>27.5715894000495</v>
+        <v>21.92699466736636</v>
       </c>
       <c r="S19" t="n">
-        <v>10.68636006467749</v>
+        <v>8.498594576898769</v>
       </c>
       <c r="T19" t="n">
-        <v>2.62002568095901</v>
+        <v>2.083640819583945</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.02659967003724189</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.367018638199504</v>
+        <v>1.087155693314407</v>
       </c>
       <c r="H20" t="n">
-        <v>13.99997962846068</v>
+        <v>11.13383324415617</v>
       </c>
       <c r="I20" t="n">
-        <v>52.70198604918644</v>
+        <v>41.91256986650371</v>
       </c>
       <c r="J20" t="n">
-        <v>116.0239981438853</v>
+        <v>92.27098052544372</v>
       </c>
       <c r="K20" t="n">
-        <v>173.8898970988704</v>
+        <v>138.2902810234426</v>
       </c>
       <c r="L20" t="n">
-        <v>215.7257937476685</v>
+        <v>171.5613220727134</v>
       </c>
       <c r="M20" t="n">
-        <v>240.0365114547489</v>
+        <v>190.8950271336935</v>
       </c>
       <c r="N20" t="n">
-        <v>243.9205531605333</v>
+        <v>193.983908247323</v>
       </c>
       <c r="O20" t="n">
-        <v>230.3272615769369</v>
+        <v>183.1735038219279</v>
       </c>
       <c r="P20" t="n">
-        <v>196.5789889463866</v>
+        <v>156.3343476432285</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.6226339658668</v>
+        <v>117.4005843764062</v>
       </c>
       <c r="R20" t="n">
-        <v>85.87098453179969</v>
+        <v>68.29104382016116</v>
       </c>
       <c r="S20" t="n">
-        <v>31.15093721797124</v>
+        <v>24.77356036140207</v>
       </c>
       <c r="T20" t="n">
-        <v>5.984124088718334</v>
+        <v>4.759024047483818</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.08697245546515252</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.581679576852138</v>
       </c>
       <c r="H21" t="n">
-        <v>7.063972089879092</v>
+        <v>5.617800123808808</v>
       </c>
       <c r="I21" t="n">
-        <v>25.1826434630113</v>
+        <v>20.02712578197054</v>
       </c>
       <c r="J21" t="n">
-        <v>69.10309845053838</v>
+        <v>54.95596388145573</v>
       </c>
       <c r="K21" t="n">
-        <v>118.1082018315525</v>
+        <v>93.92849553054897</v>
       </c>
       <c r="L21" t="n">
-        <v>158.8110528199203</v>
+        <v>126.2984537371276</v>
       </c>
       <c r="M21" t="n">
-        <v>185.3250080074092</v>
+        <v>147.3843383980176</v>
       </c>
       <c r="N21" t="n">
-        <v>190.2300095175932</v>
+        <v>151.2851632796269</v>
       </c>
       <c r="O21" t="n">
-        <v>174.0232942596145</v>
+        <v>138.3963684451664</v>
       </c>
       <c r="P21" t="n">
-        <v>139.6690358079727</v>
+        <v>111.0752869166157</v>
       </c>
       <c r="Q21" t="n">
-        <v>93.36505163662174</v>
+        <v>74.25088773993257</v>
       </c>
       <c r="R21" t="n">
-        <v>45.41216571495389</v>
+        <v>36.11515828911784</v>
       </c>
       <c r="S21" t="n">
-        <v>13.58579554979016</v>
+        <v>10.80444301740703</v>
       </c>
       <c r="T21" t="n">
-        <v>2.94813367420476</v>
+        <v>2.344576890908397</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.03826839321395646</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.487660617349434</v>
       </c>
       <c r="H22" t="n">
-        <v>5.451883225484925</v>
+        <v>4.335746216070425</v>
       </c>
       <c r="I22" t="n">
-        <v>18.44052117577109</v>
+        <v>14.66528474719935</v>
       </c>
       <c r="J22" t="n">
-        <v>43.35306323578346</v>
+        <v>34.47760564660498</v>
       </c>
       <c r="K22" t="n">
-        <v>71.2424004311833</v>
+        <v>56.65729717932513</v>
       </c>
       <c r="L22" t="n">
-        <v>91.16574465192271</v>
+        <v>72.50183396484222</v>
       </c>
       <c r="M22" t="n">
-        <v>96.12149535484302</v>
+        <v>76.44301840869353</v>
       </c>
       <c r="N22" t="n">
-        <v>93.83594103741078</v>
+        <v>74.62537428948207</v>
       </c>
       <c r="O22" t="n">
-        <v>86.6726793352143</v>
+        <v>68.92861162317276</v>
       </c>
       <c r="P22" t="n">
-        <v>74.16345033931631</v>
+        <v>58.98033502924424</v>
       </c>
       <c r="Q22" t="n">
-        <v>51.34692882407117</v>
+        <v>40.83492678550579</v>
       </c>
       <c r="R22" t="n">
-        <v>27.5715894000495</v>
+        <v>21.92699466736636</v>
       </c>
       <c r="S22" t="n">
-        <v>10.68636006467749</v>
+        <v>8.498594576898769</v>
       </c>
       <c r="T22" t="n">
-        <v>2.62002568095901</v>
+        <v>2.083640819583945</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.02659967003724189</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5579630241179461</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>274.2838073416025</v>
+        <v>82.55611253552989</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
@@ -34798,7 +34798,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>90.02410328955507</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>251.1414018543382</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35035,7 +35035,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>223.6594671380758</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>22.61573905664511</v>
+        <v>91.6117033908813</v>
       </c>
       <c r="K11" t="n">
-        <v>157.4068401502466</v>
+        <v>260.8139053285979</v>
       </c>
       <c r="L11" t="n">
-        <v>247.7711223775118</v>
+        <v>376.0567306094442</v>
       </c>
       <c r="M11" t="n">
-        <v>291.0590674211903</v>
+        <v>433.8015245696484</v>
       </c>
       <c r="N11" t="n">
-        <v>280.0947932913458</v>
+        <v>425.1469726291103</v>
       </c>
       <c r="O11" t="n">
-        <v>217.8912764459342</v>
+        <v>354.8599361990385</v>
       </c>
       <c r="P11" t="n">
-        <v>148.6532510628471</v>
+        <v>265.5528332801826</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.67340919245552</v>
+        <v>121.4601270351188</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>62.42395463548088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.5769390236308</v>
       </c>
       <c r="L12" t="n">
-        <v>57.62647123781856</v>
+        <v>376.8818925673478</v>
       </c>
       <c r="M12" t="n">
-        <v>353.3606744918864</v>
+        <v>493.1369216240496</v>
       </c>
       <c r="N12" t="n">
-        <v>353.3606744918864</v>
+        <v>521.7430633156725</v>
       </c>
       <c r="O12" t="n">
-        <v>305.495449722332</v>
+        <v>408.9818421596317</v>
       </c>
       <c r="P12" t="n">
-        <v>228.5945656207265</v>
+        <v>231.5591197162089</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.7276634335267</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>41.88288746149178</v>
       </c>
       <c r="L13" t="n">
-        <v>55.74945175560909</v>
+        <v>109.9629641938515</v>
       </c>
       <c r="M13" t="n">
-        <v>69.47987883481736</v>
+        <v>126.6404264056021</v>
       </c>
       <c r="N13" t="n">
-        <v>73.02099644446268</v>
+        <v>128.8223939541199</v>
       </c>
       <c r="O13" t="n">
-        <v>51.95519733506912</v>
+        <v>103.4968196531438</v>
       </c>
       <c r="P13" t="n">
-        <v>20.99959494441477</v>
+        <v>65.10235692792808</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>115.3647210093229</v>
+        <v>91.6117033908813</v>
       </c>
       <c r="K14" t="n">
-        <v>296.4135214040257</v>
+        <v>260.8139053285979</v>
       </c>
       <c r="L14" t="n">
-        <v>420.2212022843994</v>
+        <v>376.0567306094442</v>
       </c>
       <c r="M14" t="n">
-        <v>482.9430088907039</v>
+        <v>433.8015245696484</v>
       </c>
       <c r="N14" t="n">
-        <v>475.0836175423207</v>
+        <v>425.1469726291103</v>
       </c>
       <c r="O14" t="n">
-        <v>402.0136939540475</v>
+        <v>354.8599361990385</v>
       </c>
       <c r="P14" t="n">
-        <v>305.7974745833408</v>
+        <v>265.5528332801826</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.6821766245795</v>
+        <v>121.4601270351188</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>62.42395463548088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.1421867688708</v>
+        <v>234.5769390236308</v>
       </c>
       <c r="L15" t="n">
-        <v>409.3944916501405</v>
+        <v>376.8818925673478</v>
       </c>
       <c r="M15" t="n">
-        <v>531.0775912334414</v>
+        <v>493.1369216240496</v>
       </c>
       <c r="N15" t="n">
-        <v>560.6879095536389</v>
+        <v>521.7430633156725</v>
       </c>
       <c r="O15" t="n">
-        <v>444.6087679740799</v>
+        <v>328.8894428026622</v>
       </c>
       <c r="P15" t="n">
-        <v>340.2452679645354</v>
+        <v>311.6515190731783</v>
       </c>
       <c r="Q15" t="n">
-        <v>175.3632011480339</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.46799071334996</v>
+        <v>41.88288746149178</v>
       </c>
       <c r="L16" t="n">
-        <v>128.626874880932</v>
+        <v>109.9629641938515</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3189033517516</v>
+        <v>126.6404264056021</v>
       </c>
       <c r="N16" t="n">
-        <v>148.0329607020487</v>
+        <v>128.8223939541199</v>
       </c>
       <c r="O16" t="n">
-        <v>121.2408873651854</v>
+        <v>103.4968196531438</v>
       </c>
       <c r="P16" t="n">
-        <v>80.28547223800017</v>
+        <v>65.10235692792808</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>115.3647210093229</v>
+        <v>91.6117033908813</v>
       </c>
       <c r="K17" t="n">
-        <v>296.4135214040257</v>
+        <v>260.8139053285979</v>
       </c>
       <c r="L17" t="n">
-        <v>420.2212022843993</v>
+        <v>376.0567306094442</v>
       </c>
       <c r="M17" t="n">
-        <v>482.9430088907038</v>
+        <v>433.8015245696484</v>
       </c>
       <c r="N17" t="n">
-        <v>475.0836175423206</v>
+        <v>425.1469726291103</v>
       </c>
       <c r="O17" t="n">
-        <v>402.0136939540475</v>
+        <v>354.8599361990385</v>
       </c>
       <c r="P17" t="n">
-        <v>305.7974745833408</v>
+        <v>265.5528332801826</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.6821766245795</v>
+        <v>121.4601270351188</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>258.7566453246342</v>
+        <v>216.908494302142</v>
       </c>
       <c r="L18" t="n">
-        <v>409.3944916501405</v>
+        <v>376.8818925673478</v>
       </c>
       <c r="M18" t="n">
-        <v>531.0775912334412</v>
+        <v>493.1369216240496</v>
       </c>
       <c r="N18" t="n">
-        <v>560.6879095536389</v>
+        <v>521.7430633156725</v>
       </c>
       <c r="O18" t="n">
-        <v>444.6087679740798</v>
+        <v>408.9818421596317</v>
       </c>
       <c r="P18" t="n">
-        <v>340.2452679645353</v>
+        <v>311.6515190731783</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.17765338770756</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.46799071334995</v>
+        <v>41.88288746149178</v>
       </c>
       <c r="L19" t="n">
-        <v>128.626874880932</v>
+        <v>109.9629641938515</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3189033517516</v>
+        <v>126.6404264056021</v>
       </c>
       <c r="N19" t="n">
-        <v>148.0329607020487</v>
+        <v>128.8223939541199</v>
       </c>
       <c r="O19" t="n">
-        <v>121.2408873651854</v>
+        <v>103.4968196531438</v>
       </c>
       <c r="P19" t="n">
-        <v>80.28547223800015</v>
+        <v>65.10235692792808</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>115.3647210093229</v>
+        <v>91.6117033908813</v>
       </c>
       <c r="K20" t="n">
-        <v>296.4135214040257</v>
+        <v>260.8139053285979</v>
       </c>
       <c r="L20" t="n">
-        <v>420.2212022843993</v>
+        <v>376.0567306094442</v>
       </c>
       <c r="M20" t="n">
-        <v>482.9430088907038</v>
+        <v>433.8015245696484</v>
       </c>
       <c r="N20" t="n">
-        <v>475.0836175423206</v>
+        <v>425.1469726291103</v>
       </c>
       <c r="O20" t="n">
-        <v>402.0136939540475</v>
+        <v>354.8599361990385</v>
       </c>
       <c r="P20" t="n">
-        <v>305.7974745833408</v>
+        <v>265.5528332801826</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.6821766245795</v>
+        <v>121.4601270351188</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.57108920456353</v>
+        <v>62.42395463548088</v>
       </c>
       <c r="K21" t="n">
-        <v>258.7566453246342</v>
+        <v>234.5769390236308</v>
       </c>
       <c r="L21" t="n">
-        <v>409.3944916501405</v>
+        <v>376.8818925673478</v>
       </c>
       <c r="M21" t="n">
-        <v>531.0775912334412</v>
+        <v>493.1369216240496</v>
       </c>
       <c r="N21" t="n">
-        <v>560.6879095536389</v>
+        <v>285.4016267073584</v>
       </c>
       <c r="O21" t="n">
-        <v>444.6087679740798</v>
+        <v>408.9818421596317</v>
       </c>
       <c r="P21" t="n">
-        <v>340.2452679645353</v>
+        <v>311.6515190731783</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.17765338770756</v>
+        <v>156.2490372513446</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.46799071334995</v>
+        <v>41.88288746149178</v>
       </c>
       <c r="L22" t="n">
-        <v>128.626874880932</v>
+        <v>109.9629641938515</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3189033517516</v>
+        <v>126.6404264056021</v>
       </c>
       <c r="N22" t="n">
-        <v>148.0329607020487</v>
+        <v>128.8223939541199</v>
       </c>
       <c r="O22" t="n">
-        <v>121.2408873651854</v>
+        <v>103.4968196531438</v>
       </c>
       <c r="P22" t="n">
-        <v>80.28547223800015</v>
+        <v>65.10235692792808</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K24" t="n">
         <v>258.7566453246342</v>
@@ -36448,7 +36448,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N24" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O24" t="n">
         <v>444.6087679740798</v>
@@ -36457,7 +36457,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.7487425922701</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K27" t="n">
-        <v>258.7566453246342</v>
+        <v>111.5710975643069</v>
       </c>
       <c r="L27" t="n">
         <v>409.3944916501405</v>
@@ -36694,7 +36694,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>115.3647210093229</v>
+        <v>115.3647210093227</v>
       </c>
       <c r="K29" t="n">
         <v>296.4135214040257</v>
@@ -36922,13 +36922,13 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N30" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O30" t="n">
         <v>444.6087679740798</v>
       </c>
       <c r="P30" t="n">
-        <v>193.0597202042087</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q30" t="n">
         <v>175.3632011480339</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>258.7566453246342</v>
@@ -37156,13 +37156,13 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M33" t="n">
-        <v>383.8920434731139</v>
+        <v>531.0775912334412</v>
       </c>
       <c r="N33" t="n">
         <v>560.6879095536389</v>
       </c>
       <c r="O33" t="n">
-        <v>444.6087679740798</v>
+        <v>373.9943094183163</v>
       </c>
       <c r="P33" t="n">
         <v>340.2452679645353</v>
@@ -37396,7 +37396,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N36" t="n">
-        <v>560.6879095536389</v>
+        <v>490.0734509978752</v>
       </c>
       <c r="O36" t="n">
         <v>444.6087679740798</v>
@@ -37405,7 +37405,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>258.7566453246342</v>
       </c>
       <c r="L39" t="n">
-        <v>262.2089438898131</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M39" t="n">
         <v>531.0775912334412</v>
@@ -37642,7 +37642,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q39" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>258.7566453246342</v>
       </c>
       <c r="L45" t="n">
-        <v>262.2089438898131</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M45" t="n">
         <v>531.0775912334412</v>
@@ -38116,7 +38116,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q45" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
